--- a/_hydro-radar-grid.xlsx
+++ b/_hydro-radar-grid.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8af8c7aaa28e8b74/Ingegneria/PhD UniPG/PRIN ENTERPRISING/lab-test_todo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giord\Desktop\hrc-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="471" documentId="8_{EAA5DC87-6FAD-4671-A2AC-1D7CD816347E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46FCC4D2-A51F-49FA-AB9E-097FB6E02EBF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51E14C3-2762-4ED7-A494-0A5C8BBCBFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{C60B9B42-610B-418E-B17A-28126607FE42}"/>
   </bookViews>
@@ -376,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -461,6 +461,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -469,15 +478,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -524,7 +525,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>21,3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -558,19 +559,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.7821629400464859</c:v>
+                  <c:v>-0.53213330872405229</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.39108147002324295</c:v>
+                  <c:v>-0.26606665436202614</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39108147002324295</c:v>
+                  <c:v>0.26606665436202614</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7821629400464859</c:v>
+                  <c:v>0.53213330872405229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -582,19 +583,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.919071832050935</c:v>
+                  <c:v>1.9859485445578982</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.919071832050935</c:v>
+                  <c:v>1.9859485445578982</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.919071832050935</c:v>
+                  <c:v>1.9859485445578982</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.919071832050935</c:v>
+                  <c:v>1.9859485445578982</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.919071832050935</c:v>
+                  <c:v>1.9859485445578982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -615,7 +616,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -649,19 +650,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.57137425075846593</c:v>
+                  <c:v>-0.4634737633134644</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.28568712537923296</c:v>
+                  <c:v>-0.2317368816567322</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28568712537923296</c:v>
+                  <c:v>0.2317368816567322</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.57137425075846593</c:v>
+                  <c:v>0.4634737633134644</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -673,19 +674,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.1323977339671951</c:v>
+                  <c:v>1.7297076326610017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1323977339671951</c:v>
+                  <c:v>1.7297076326610017</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1323977339671951</c:v>
+                  <c:v>1.7297076326610017</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1323977339671951</c:v>
+                  <c:v>1.7297076326610017</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1323977339671951</c:v>
+                  <c:v>1.7297076326610017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -706,7 +707,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -740,19 +741,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.44156634632837932</c:v>
+                  <c:v>-0.40226210102840171</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.22078317316418966</c:v>
+                  <c:v>-0.20113105051420085</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22078317316418966</c:v>
+                  <c:v>0.20113105051420085</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44156634632837932</c:v>
+                  <c:v>0.40226210102840171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -764,19 +765,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.6479480394100667</c:v>
+                  <c:v>1.5012625989974</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6479480394100667</c:v>
+                  <c:v>1.5012625989974</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6479480394100667</c:v>
+                  <c:v>1.5012625989974</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6479480394100667</c:v>
+                  <c:v>1.5012625989974</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6479480394100667</c:v>
+                  <c:v>1.5012625989974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -797,7 +798,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -831,19 +832,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.35233937586587993</c:v>
+                  <c:v>-0.33764456700476031</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.17616968793293997</c:v>
+                  <c:v>-0.16882228350238015</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17616968793293997</c:v>
+                  <c:v>0.16882228350238015</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35233937586587993</c:v>
+                  <c:v>0.33764456700476031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -855,19 +856,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.3149484522385715</c:v>
+                  <c:v>1.2601066789613597</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3149484522385715</c:v>
+                  <c:v>1.2601066789613597</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3149484522385715</c:v>
+                  <c:v>1.2601066789613597</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3149484522385715</c:v>
+                  <c:v>1.2601066789613597</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3149484522385715</c:v>
+                  <c:v>1.2601066789613597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2087,7 +2088,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U32" sqref="U32"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2131,33 +2132,33 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
-        <v>15</v>
+        <v>21.3</v>
       </c>
       <c r="B2" s="49">
         <v>15</v>
       </c>
       <c r="C2" s="17">
         <f t="shared" ref="C2:C11" si="0">0.56+0.23*COS(RADIANS(A2))</f>
-        <v>0.78216294004648579</v>
+        <v>0.77428898234467636</v>
       </c>
       <c r="D2" s="18">
         <f t="shared" ref="D2:D11" si="1">$C2*_xlfn.COT(RADIANS(A2))</f>
-        <v>2.919071832050935</v>
+        <v>1.9859485445578982</v>
       </c>
       <c r="E2" s="18">
         <f t="shared" ref="E2:E11" si="2">D2*TAN(RADIANS($B$2))</f>
-        <v>0.7821629400464859</v>
+        <v>0.53213330872405229</v>
       </c>
       <c r="F2" s="18">
         <f>E2*2</f>
-        <v>1.5643258800929718</v>
+        <v>1.0642666174481046</v>
       </c>
       <c r="G2" s="49">
         <v>5</v>
       </c>
       <c r="H2" s="19">
         <f t="shared" ref="H2:H11" si="3">F2/($G$2-1)</f>
-        <v>0.39108147002324295</v>
+        <v>0.26606665436202614</v>
       </c>
       <c r="J2" s="40" t="s">
         <v>31</v>
@@ -2168,29 +2169,29 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B3" s="49"/>
       <c r="C3" s="17">
         <f t="shared" si="0"/>
-        <v>0.77612930278075898</v>
+        <v>0.77011545525779823</v>
       </c>
       <c r="D3" s="18">
         <f t="shared" si="1"/>
-        <v>2.1323977339671951</v>
+        <v>1.7297076326610017</v>
       </c>
       <c r="E3" s="18">
         <f t="shared" si="2"/>
-        <v>0.57137425075846593</v>
+        <v>0.4634737633134644</v>
       </c>
       <c r="F3" s="18">
         <f t="shared" ref="F3:F11" si="4">E3*2</f>
-        <v>1.1427485015169319</v>
+        <v>0.92694752662692881</v>
       </c>
       <c r="G3" s="49"/>
       <c r="H3" s="19">
         <f t="shared" si="3"/>
-        <v>0.28568712537923296</v>
+        <v>0.2317368816567322</v>
       </c>
       <c r="J3" s="43"/>
       <c r="K3" s="44"/>
@@ -2199,29 +2200,29 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4" s="49"/>
       <c r="C4" s="17">
         <f t="shared" si="0"/>
-        <v>0.7684507910184295</v>
+        <v>0.76493150056332471</v>
       </c>
       <c r="D4" s="18">
         <f t="shared" si="1"/>
-        <v>1.6479480394100667</v>
+        <v>1.5012625989974</v>
       </c>
       <c r="E4" s="18">
         <f t="shared" si="2"/>
-        <v>0.44156634632837932</v>
+        <v>0.40226210102840171</v>
       </c>
       <c r="F4" s="18">
         <f t="shared" si="4"/>
-        <v>0.88313269265675864</v>
+        <v>0.80452420205680342</v>
       </c>
       <c r="G4" s="49"/>
       <c r="H4" s="19">
         <f t="shared" si="3"/>
-        <v>0.22078317316418966</v>
+        <v>0.20113105051420085</v>
       </c>
       <c r="J4" s="43"/>
       <c r="K4" s="44"/>
@@ -2230,29 +2231,29 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" s="49"/>
       <c r="C5" s="17">
         <f t="shared" si="0"/>
-        <v>0.75918584287042101</v>
+        <v>0.75714847916148587</v>
       </c>
       <c r="D5" s="18">
         <f t="shared" si="1"/>
-        <v>1.3149484522385715</v>
+        <v>1.2601066789613597</v>
       </c>
       <c r="E5" s="18">
         <f t="shared" si="2"/>
-        <v>0.35233937586587993</v>
+        <v>0.33764456700476031</v>
       </c>
       <c r="F5" s="18">
         <f t="shared" si="4"/>
-        <v>0.70467875173175987</v>
+        <v>0.67528913400952062</v>
       </c>
       <c r="G5" s="49"/>
       <c r="H5" s="19">
         <f t="shared" si="3"/>
-        <v>0.17616968793293997</v>
+        <v>0.16882228350238015</v>
       </c>
       <c r="J5" s="43"/>
       <c r="K5" s="44"/>
@@ -2291,7 +2292,7 @@
       <c r="M6" s="45"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="57">
         <v>40</v>
       </c>
       <c r="B7" s="49"/>
@@ -2493,11 +2494,11 @@
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <f>A2</f>
-        <v>15</v>
+        <v>21.3</v>
       </c>
       <c r="B15" s="5">
         <f>D2</f>
-        <v>2.919071832050935</v>
+        <v>1.9859485445578982</v>
       </c>
       <c r="C15" s="8">
         <f>$G$2</f>
@@ -2505,11 +2506,11 @@
       </c>
       <c r="D15" s="4">
         <f>-TRUNC($C15/2)*$H2</f>
-        <v>-0.7821629400464859</v>
+        <v>-0.53213330872405229</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ref="E15:F19" si="5">D15+$H2</f>
-        <v>-0.39108147002324295</v>
+        <v>-0.26606665436202614</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="5"/>
@@ -2517,11 +2518,11 @@
       </c>
       <c r="G15" s="5">
         <f t="shared" ref="G15:H15" si="6">F15+$H2</f>
-        <v>0.39108147002324295</v>
+        <v>0.26606665436202614</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="6"/>
-        <v>0.7821629400464859</v>
+        <v>0.53213330872405229</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -2533,11 +2534,11 @@
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <f t="shared" ref="A16:A19" si="7">A3</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16" s="5">
         <f t="shared" ref="B16:B19" si="8">D3</f>
-        <v>2.1323977339671951</v>
+        <v>1.7297076326610017</v>
       </c>
       <c r="C16" s="8">
         <f t="shared" ref="C16:C19" si="9">$G$2</f>
@@ -2545,11 +2546,11 @@
       </c>
       <c r="D16" s="4">
         <f>-TRUNC($C16/2)*$H3</f>
-        <v>-0.57137425075846593</v>
+        <v>-0.4634737633134644</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="5"/>
-        <v>-0.28568712537923296</v>
+        <v>-0.2317368816567322</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="5"/>
@@ -2557,11 +2558,11 @@
       </c>
       <c r="G16" s="5">
         <f t="shared" ref="G16:H16" si="10">F16+$H3</f>
-        <v>0.28568712537923296</v>
+        <v>0.2317368816567322</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="10"/>
-        <v>0.57137425075846593</v>
+        <v>0.4634737633134644</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -2573,11 +2574,11 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" s="5">
         <f t="shared" si="8"/>
-        <v>1.6479480394100667</v>
+        <v>1.5012625989974</v>
       </c>
       <c r="C17" s="8">
         <f t="shared" si="9"/>
@@ -2585,11 +2586,11 @@
       </c>
       <c r="D17" s="4">
         <f>-TRUNC($C17/2)*$H4</f>
-        <v>-0.44156634632837932</v>
+        <v>-0.40226210102840171</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="5"/>
-        <v>-0.22078317316418966</v>
+        <v>-0.20113105051420085</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="5"/>
@@ -2597,11 +2598,11 @@
       </c>
       <c r="G17" s="5">
         <f t="shared" ref="G17:H17" si="11">F17+$H4</f>
-        <v>0.22078317316418966</v>
+        <v>0.20113105051420085</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" si="11"/>
-        <v>0.44156634632837932</v>
+        <v>0.40226210102840171</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -2613,11 +2614,11 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="5">
         <f t="shared" si="8"/>
-        <v>1.3149484522385715</v>
+        <v>1.2601066789613597</v>
       </c>
       <c r="C18" s="8">
         <f t="shared" si="9"/>
@@ -2625,11 +2626,11 @@
       </c>
       <c r="D18" s="4">
         <f>-TRUNC($C18/2)*$H5</f>
-        <v>-0.35233937586587993</v>
+        <v>-0.33764456700476031</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="5"/>
-        <v>-0.17616968793293997</v>
+        <v>-0.16882228350238015</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="5"/>
@@ -2637,11 +2638,11 @@
       </c>
       <c r="G18" s="5">
         <f t="shared" ref="G18:H18" si="12">F18+$H5</f>
-        <v>0.17616968793293997</v>
+        <v>0.16882228350238015</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" si="12"/>
-        <v>0.35233937586587993</v>
+        <v>0.33764456700476031</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -2749,29 +2750,29 @@
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <f>A2</f>
-        <v>15</v>
+        <v>21.3</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="4">
         <f>$B$15</f>
-        <v>2.919071832050935</v>
+        <v>1.9859485445578982</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" ref="E22:J22" si="14">$B$15</f>
-        <v>2.919071832050935</v>
+        <f t="shared" ref="E22:H22" si="14">$B$15</f>
+        <v>1.9859485445578982</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="14"/>
-        <v>2.919071832050935</v>
+        <v>1.9859485445578982</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="14"/>
-        <v>2.919071832050935</v>
+        <v>1.9859485445578982</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" si="14"/>
-        <v>2.919071832050935</v>
+        <v>1.9859485445578982</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -2783,29 +2784,29 @@
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <f>A3</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="4">
         <f>$B$16</f>
-        <v>2.1323977339671951</v>
+        <v>1.7297076326610017</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" ref="E23:J23" si="15">$B$16</f>
-        <v>2.1323977339671951</v>
+        <f t="shared" ref="E23:H23" si="15">$B$16</f>
+        <v>1.7297076326610017</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="15"/>
-        <v>2.1323977339671951</v>
+        <v>1.7297076326610017</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="15"/>
-        <v>2.1323977339671951</v>
+        <v>1.7297076326610017</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" si="15"/>
-        <v>2.1323977339671951</v>
+        <v>1.7297076326610017</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -2817,29 +2818,29 @@
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <f t="shared" ref="A24:A26" si="16">A4</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="4">
         <f>$B$17</f>
-        <v>1.6479480394100667</v>
+        <v>1.5012625989974</v>
       </c>
       <c r="E24" s="5">
-        <f t="shared" ref="E24:J24" si="17">$B$17</f>
-        <v>1.6479480394100667</v>
+        <f t="shared" ref="E24:H24" si="17">$B$17</f>
+        <v>1.5012625989974</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="17"/>
-        <v>1.6479480394100667</v>
+        <v>1.5012625989974</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="17"/>
-        <v>1.6479480394100667</v>
+        <v>1.5012625989974</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" si="17"/>
-        <v>1.6479480394100667</v>
+        <v>1.5012625989974</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -2851,29 +2852,29 @@
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <f t="shared" si="16"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="4">
         <f>$B$18</f>
-        <v>1.3149484522385715</v>
+        <v>1.2601066789613597</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" ref="E25:J25" si="18">$B$18</f>
-        <v>1.3149484522385715</v>
+        <f t="shared" ref="E25:H25" si="18">$B$18</f>
+        <v>1.2601066789613597</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="18"/>
-        <v>1.3149484522385715</v>
+        <v>1.2601066789613597</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="18"/>
-        <v>1.3149484522385715</v>
+        <v>1.2601066789613597</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" si="18"/>
-        <v>1.3149484522385715</v>
+        <v>1.2601066789613597</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -2894,7 +2895,7 @@
         <v>1.0688330664076962</v>
       </c>
       <c r="E26" s="25">
-        <f t="shared" ref="E26:J26" si="19">$B$19</f>
+        <f t="shared" ref="E26:H26" si="19">$B$19</f>
         <v>1.0688330664076962</v>
       </c>
       <c r="F26" s="25">
@@ -2924,7 +2925,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -2957,55 +2958,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C1" s="54">
+      <c r="C1" s="51">
         <f>grid!$A$15</f>
-        <v>15</v>
-      </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="54">
+        <v>21.3</v>
+      </c>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="51">
         <f>grid!$A$16</f>
-        <v>20</v>
-      </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="54">
+        <v>24</v>
+      </c>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="51">
         <f>grid!$A$17</f>
-        <v>25</v>
-      </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="54">
+        <v>27</v>
+      </c>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="51">
         <f>grid!$A$18</f>
-        <v>30</v>
-      </c>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="54">
+        <v>31</v>
+      </c>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="51">
         <f>grid!$A$19</f>
         <v>35</v>
       </c>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="56"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="53"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C2" s="1">
         <f>grid!D15</f>
-        <v>-0.7821629400464859</v>
+        <v>-0.53213330872405229</v>
       </c>
       <c r="D2" s="2">
         <f>grid!E15</f>
-        <v>-0.39108147002324295</v>
+        <v>-0.26606665436202614</v>
       </c>
       <c r="E2" s="2">
         <f>grid!F15</f>
@@ -3013,19 +3014,19 @@
       </c>
       <c r="F2" s="2">
         <f>grid!G15</f>
-        <v>0.39108147002324295</v>
+        <v>0.26606665436202614</v>
       </c>
       <c r="G2" s="3">
         <f>grid!H15</f>
-        <v>0.7821629400464859</v>
+        <v>0.53213330872405229</v>
       </c>
       <c r="H2" s="1">
         <f>grid!D16</f>
-        <v>-0.57137425075846593</v>
+        <v>-0.4634737633134644</v>
       </c>
       <c r="I2" s="2">
         <f>grid!E16</f>
-        <v>-0.28568712537923296</v>
+        <v>-0.2317368816567322</v>
       </c>
       <c r="J2" s="2">
         <f>grid!F16</f>
@@ -3033,19 +3034,19 @@
       </c>
       <c r="K2" s="2">
         <f>grid!G16</f>
-        <v>0.28568712537923296</v>
+        <v>0.2317368816567322</v>
       </c>
       <c r="L2" s="3">
         <f>grid!H16</f>
-        <v>0.57137425075846593</v>
+        <v>0.4634737633134644</v>
       </c>
       <c r="M2" s="1">
         <f>grid!D17</f>
-        <v>-0.44156634632837932</v>
+        <v>-0.40226210102840171</v>
       </c>
       <c r="N2" s="2">
         <f>grid!E17</f>
-        <v>-0.22078317316418966</v>
+        <v>-0.20113105051420085</v>
       </c>
       <c r="O2" s="2">
         <f>grid!F17</f>
@@ -3053,19 +3054,19 @@
       </c>
       <c r="P2" s="2">
         <f>grid!G17</f>
-        <v>0.22078317316418966</v>
+        <v>0.20113105051420085</v>
       </c>
       <c r="Q2" s="3">
         <f>grid!H17</f>
-        <v>0.44156634632837932</v>
+        <v>0.40226210102840171</v>
       </c>
       <c r="R2" s="1">
         <f>grid!D18</f>
-        <v>-0.35233937586587993</v>
+        <v>-0.33764456700476031</v>
       </c>
       <c r="S2" s="2">
         <f>grid!E18</f>
-        <v>-0.17616968793293997</v>
+        <v>-0.16882228350238015</v>
       </c>
       <c r="T2" s="2">
         <f>grid!F18</f>
@@ -3073,11 +3074,11 @@
       </c>
       <c r="U2" s="2">
         <f>grid!G18</f>
-        <v>0.17616968793293997</v>
+        <v>0.16882228350238015</v>
       </c>
       <c r="V2" s="3">
         <f>grid!H18</f>
-        <v>0.35233937586587993</v>
+        <v>0.33764456700476031</v>
       </c>
       <c r="W2" s="1">
         <f>grid!D19</f>
@@ -3101,13 +3102,13 @@
       </c>
     </row>
     <row r="3" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51">
+      <c r="A3" s="54">
         <f t="shared" ref="A3" si="0">$C$1</f>
-        <v>15</v>
+        <v>21.3</v>
       </c>
       <c r="B3" s="34">
         <f>grid!$D$22</f>
-        <v>2.919071832050935</v>
+        <v>1.9859485445578982</v>
       </c>
       <c r="C3" s="10"/>
       <c r="G3" s="12"/>
@@ -3121,10 +3122,10 @@
       <c r="AA3" s="12"/>
     </row>
     <row r="4" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="35">
         <f>$B$3</f>
-        <v>2.919071832050935</v>
+        <v>1.9859485445578982</v>
       </c>
       <c r="C4" s="9"/>
       <c r="G4" s="37"/>
@@ -3138,10 +3139,10 @@
       <c r="AA4" s="37"/>
     </row>
     <row r="5" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="35">
         <f t="shared" ref="B5:B7" si="1">$B$3</f>
-        <v>2.919071832050935</v>
+        <v>1.9859485445578982</v>
       </c>
       <c r="C5" s="9"/>
       <c r="G5" s="37"/>
@@ -3155,10 +3156,10 @@
       <c r="AA5" s="37"/>
     </row>
     <row r="6" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="35">
         <f t="shared" si="1"/>
-        <v>2.919071832050935</v>
+        <v>1.9859485445578982</v>
       </c>
       <c r="C6" s="9"/>
       <c r="G6" s="37"/>
@@ -3172,10 +3173,10 @@
       <c r="AA6" s="37"/>
     </row>
     <row r="7" spans="1:27" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="36">
         <f t="shared" si="1"/>
-        <v>2.919071832050935</v>
+        <v>1.9859485445578982</v>
       </c>
       <c r="C7" s="38"/>
       <c r="G7" s="39"/>
@@ -3189,13 +3190,13 @@
       <c r="AA7" s="39"/>
     </row>
     <row r="8" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51">
+      <c r="A8" s="54">
         <f t="shared" ref="A8" si="2">$H$1</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B8" s="34">
         <f>grid!$D$23</f>
-        <v>2.1323977339671951</v>
+        <v>1.7297076326610017</v>
       </c>
       <c r="C8" s="10"/>
       <c r="G8" s="12"/>
@@ -3209,10 +3210,10 @@
       <c r="AA8" s="12"/>
     </row>
     <row r="9" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="35">
         <f>B8</f>
-        <v>2.1323977339671951</v>
+        <v>1.7297076326610017</v>
       </c>
       <c r="C9" s="9"/>
       <c r="G9" s="37"/>
@@ -3226,10 +3227,10 @@
       <c r="AA9" s="37"/>
     </row>
     <row r="10" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="35">
         <f>B8</f>
-        <v>2.1323977339671951</v>
+        <v>1.7297076326610017</v>
       </c>
       <c r="C10" s="9"/>
       <c r="G10" s="37"/>
@@ -3243,10 +3244,10 @@
       <c r="AA10" s="37"/>
     </row>
     <row r="11" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="35">
         <f>B8</f>
-        <v>2.1323977339671951</v>
+        <v>1.7297076326610017</v>
       </c>
       <c r="C11" s="9"/>
       <c r="G11" s="37"/>
@@ -3260,10 +3261,10 @@
       <c r="AA11" s="37"/>
     </row>
     <row r="12" spans="1:27" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="36">
         <f>B8</f>
-        <v>2.1323977339671951</v>
+        <v>1.7297076326610017</v>
       </c>
       <c r="C12" s="38"/>
       <c r="G12" s="39"/>
@@ -3277,13 +3278,13 @@
       <c r="AA12" s="39"/>
     </row>
     <row r="13" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="51">
+      <c r="A13" s="54">
         <f t="shared" ref="A13" si="3">$M$1</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" s="34">
         <f>grid!$D$24</f>
-        <v>1.6479480394100667</v>
+        <v>1.5012625989974</v>
       </c>
       <c r="C13" s="10"/>
       <c r="G13" s="12"/>
@@ -3297,10 +3298,10 @@
       <c r="AA13" s="12"/>
     </row>
     <row r="14" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="35">
         <f>B13</f>
-        <v>1.6479480394100667</v>
+        <v>1.5012625989974</v>
       </c>
       <c r="C14" s="9"/>
       <c r="G14" s="37"/>
@@ -3314,10 +3315,10 @@
       <c r="AA14" s="37"/>
     </row>
     <row r="15" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="35">
         <f>B13</f>
-        <v>1.6479480394100667</v>
+        <v>1.5012625989974</v>
       </c>
       <c r="C15" s="9"/>
       <c r="G15" s="37"/>
@@ -3331,10 +3332,10 @@
       <c r="AA15" s="37"/>
     </row>
     <row r="16" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="35">
         <f>B13</f>
-        <v>1.6479480394100667</v>
+        <v>1.5012625989974</v>
       </c>
       <c r="C16" s="9"/>
       <c r="G16" s="37"/>
@@ -3348,10 +3349,10 @@
       <c r="AA16" s="37"/>
     </row>
     <row r="17" spans="1:27" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="36">
         <f>B13</f>
-        <v>1.6479480394100667</v>
+        <v>1.5012625989974</v>
       </c>
       <c r="C17" s="38"/>
       <c r="G17" s="39"/>
@@ -3365,13 +3366,13 @@
       <c r="AA17" s="39"/>
     </row>
     <row r="18" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="51">
+      <c r="A18" s="54">
         <f t="shared" ref="A18" si="4">$R$1</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="34">
         <f>grid!$D$25</f>
-        <v>1.3149484522385715</v>
+        <v>1.2601066789613597</v>
       </c>
       <c r="C18" s="10"/>
       <c r="G18" s="12"/>
@@ -3385,10 +3386,10 @@
       <c r="AA18" s="12"/>
     </row>
     <row r="19" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="35">
         <f>$B$18</f>
-        <v>1.3149484522385715</v>
+        <v>1.2601066789613597</v>
       </c>
       <c r="C19" s="9"/>
       <c r="G19" s="37"/>
@@ -3402,10 +3403,10 @@
       <c r="AA19" s="37"/>
     </row>
     <row r="20" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="35">
         <f t="shared" ref="B20:B22" si="5">$B$18</f>
-        <v>1.3149484522385715</v>
+        <v>1.2601066789613597</v>
       </c>
       <c r="C20" s="9"/>
       <c r="G20" s="37"/>
@@ -3419,10 +3420,10 @@
       <c r="AA20" s="37"/>
     </row>
     <row r="21" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="35">
         <f t="shared" si="5"/>
-        <v>1.3149484522385715</v>
+        <v>1.2601066789613597</v>
       </c>
       <c r="C21" s="9"/>
       <c r="G21" s="37"/>
@@ -3436,10 +3437,10 @@
       <c r="AA21" s="37"/>
     </row>
     <row r="22" spans="1:27" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="36">
         <f t="shared" si="5"/>
-        <v>1.3149484522385715</v>
+        <v>1.2601066789613597</v>
       </c>
       <c r="C22" s="38"/>
       <c r="G22" s="39"/>
@@ -3453,7 +3454,7 @@
       <c r="AA22" s="39"/>
     </row>
     <row r="23" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51">
+      <c r="A23" s="54">
         <f t="shared" ref="A23" si="6">$W$1</f>
         <v>35</v>
       </c>
@@ -3473,7 +3474,7 @@
       <c r="AA23" s="12"/>
     </row>
     <row r="24" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="52"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="35">
         <f>$B$23</f>
         <v>1.0688330664076962</v>
@@ -3490,7 +3491,7 @@
       <c r="AA24" s="37"/>
     </row>
     <row r="25" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="35">
         <f t="shared" ref="B25:B27" si="7">$B$23</f>
         <v>1.0688330664076962</v>
@@ -3507,7 +3508,7 @@
       <c r="AA25" s="37"/>
     </row>
     <row r="26" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="35">
         <f t="shared" si="7"/>
         <v>1.0688330664076962</v>
@@ -3524,7 +3525,7 @@
       <c r="AA26" s="37"/>
     </row>
     <row r="27" spans="1:27" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="36">
         <f t="shared" si="7"/>
         <v>1.0688330664076962</v>
@@ -3542,16 +3543,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A27"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/_hydro-radar-grid.xlsx
+++ b/_hydro-radar-grid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giord\Desktop\hrc-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51E14C3-2762-4ED7-A494-0A5C8BBCBFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF8EEEA-778E-47D6-B17C-92ECBC842B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{C60B9B42-610B-418E-B17A-28126607FE42}"/>
   </bookViews>
@@ -427,6 +427,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -461,6 +462,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -469,16 +479,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -559,19 +559,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.53213330872405229</c:v>
+                  <c:v>-0.46169935684768032</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.26606665436202614</c:v>
+                  <c:v>-0.23084967842384016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26606665436202614</c:v>
+                  <c:v>0.23084967842384016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53213330872405229</c:v>
+                  <c:v>0.46169935684768032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -583,19 +583,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.9859485445578982</c:v>
+                  <c:v>1.7230854575774166</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9859485445578982</c:v>
+                  <c:v>1.7230854575774166</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9859485445578982</c:v>
+                  <c:v>1.7230854575774166</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9859485445578982</c:v>
+                  <c:v>1.7230854575774166</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9859485445578982</c:v>
+                  <c:v>1.7230854575774166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -650,19 +650,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.4634737633134644</c:v>
+                  <c:v>-0.40299649550213579</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.2317368816567322</c:v>
+                  <c:v>-0.20149824775106789</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2317368816567322</c:v>
+                  <c:v>0.20149824775106789</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4634737633134644</c:v>
+                  <c:v>0.40299649550213579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -674,19 +674,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.7297076326610017</c:v>
+                  <c:v>1.5040033964861734</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7297076326610017</c:v>
+                  <c:v>1.5040033964861734</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7297076326610017</c:v>
+                  <c:v>1.5040033964861734</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7297076326610017</c:v>
+                  <c:v>1.5040033964861734</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7297076326610017</c:v>
+                  <c:v>1.5040033964861734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -741,19 +741,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.40226210102840171</c:v>
+                  <c:v>-0.35072023462537338</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.20113105051420085</c:v>
+                  <c:v>-0.17536011731268669</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20113105051420085</c:v>
+                  <c:v>0.17536011731268669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.40226210102840171</c:v>
+                  <c:v>0.35072023462537338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -765,19 +765,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.5012625989974</c:v>
+                  <c:v>1.3089057348643709</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5012625989974</c:v>
+                  <c:v>1.3089057348643709</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5012625989974</c:v>
+                  <c:v>1.3089057348643709</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5012625989974</c:v>
+                  <c:v>1.3089057348643709</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5012625989974</c:v>
+                  <c:v>1.3089057348643709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -832,19 +832,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.33764456700476031</c:v>
+                  <c:v>-0.2955973755927937</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.16882228350238015</c:v>
+                  <c:v>-0.14779868779639685</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16882228350238015</c:v>
+                  <c:v>0.14779868779639685</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33764456700476031</c:v>
+                  <c:v>0.2955973755927937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -856,19 +856,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.2601066789613597</c:v>
+                  <c:v>1.1031844242963265</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2601066789613597</c:v>
+                  <c:v>1.1031844242963265</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2601066789613597</c:v>
+                  <c:v>1.1031844242963265</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2601066789613597</c:v>
+                  <c:v>1.1031844242963265</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2601066789613597</c:v>
+                  <c:v>1.1031844242963265</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -923,19 +923,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.28639295698762274</c:v>
+                  <c:v>-0.2519117170059158</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.14319647849381137</c:v>
+                  <c:v>-0.1259558585029579</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14319647849381137</c:v>
+                  <c:v>0.1259558585029579</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28639295698762274</c:v>
+                  <c:v>0.2519117170059158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -947,19 +947,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0688330664076962</c:v>
+                  <c:v>0.94014732688799052</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0688330664076962</c:v>
+                  <c:v>0.94014732688799052</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0688330664076962</c:v>
+                  <c:v>0.94014732688799052</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0688330664076962</c:v>
+                  <c:v>0.94014732688799052</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0688330664076962</c:v>
+                  <c:v>0.94014732688799052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2088,7 +2088,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2134,317 +2134,317 @@
       <c r="A2" s="16">
         <v>21.3</v>
       </c>
-      <c r="B2" s="49">
+      <c r="B2" s="50">
         <v>15</v>
       </c>
       <c r="C2" s="17">
-        <f t="shared" ref="C2:C11" si="0">0.56+0.23*COS(RADIANS(A2))</f>
-        <v>0.77428898234467636</v>
+        <f>0.56+0.12*COS(RADIANS(A2))</f>
+        <v>0.67180294731026591</v>
       </c>
       <c r="D2" s="18">
-        <f t="shared" ref="D2:D11" si="1">$C2*_xlfn.COT(RADIANS(A2))</f>
-        <v>1.9859485445578982</v>
+        <f t="shared" ref="D2:D11" si="0">$C2*_xlfn.COT(RADIANS(A2))</f>
+        <v>1.7230854575774166</v>
       </c>
       <c r="E2" s="18">
-        <f t="shared" ref="E2:E11" si="2">D2*TAN(RADIANS($B$2))</f>
-        <v>0.53213330872405229</v>
+        <f t="shared" ref="E2:E11" si="1">D2*TAN(RADIANS($B$2))</f>
+        <v>0.46169935684768032</v>
       </c>
       <c r="F2" s="18">
         <f>E2*2</f>
-        <v>1.0642666174481046</v>
-      </c>
-      <c r="G2" s="49">
+        <v>0.92339871369536064</v>
+      </c>
+      <c r="G2" s="50">
         <v>5</v>
       </c>
       <c r="H2" s="19">
-        <f t="shared" ref="H2:H11" si="3">F2/($G$2-1)</f>
-        <v>0.26606665436202614</v>
-      </c>
-      <c r="J2" s="40" t="s">
+        <f t="shared" ref="H2:H11" si="2">F2/($G$2-1)</f>
+        <v>0.23084967842384016</v>
+      </c>
+      <c r="J2" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>24</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="17">
+        <f t="shared" ref="C3:C11" si="3">0.56+0.12*COS(RADIANS(A3))</f>
+        <v>0.66962545491711212</v>
+      </c>
+      <c r="D3" s="18">
         <f t="shared" si="0"/>
-        <v>0.77011545525779823</v>
-      </c>
-      <c r="D3" s="18">
+        <v>1.5040033964861734</v>
+      </c>
+      <c r="E3" s="18">
         <f t="shared" si="1"/>
-        <v>1.7297076326610017</v>
-      </c>
-      <c r="E3" s="18">
-        <f t="shared" si="2"/>
-        <v>0.4634737633134644</v>
+        <v>0.40299649550213579</v>
       </c>
       <c r="F3" s="18">
         <f t="shared" ref="F3:F11" si="4">E3*2</f>
-        <v>0.92694752662692881</v>
-      </c>
-      <c r="G3" s="49"/>
+        <v>0.80599299100427158</v>
+      </c>
+      <c r="G3" s="50"/>
       <c r="H3" s="19">
-        <f t="shared" si="3"/>
-        <v>0.2317368816567322</v>
-      </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="45"/>
+        <f t="shared" si="2"/>
+        <v>0.20149824775106789</v>
+      </c>
+      <c r="J3" s="44"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>27</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="17">
+        <f t="shared" si="3"/>
+        <v>0.66692078290260426</v>
+      </c>
+      <c r="D4" s="18">
         <f t="shared" si="0"/>
-        <v>0.76493150056332471</v>
-      </c>
-      <c r="D4" s="18">
+        <v>1.3089057348643709</v>
+      </c>
+      <c r="E4" s="18">
         <f t="shared" si="1"/>
-        <v>1.5012625989974</v>
-      </c>
-      <c r="E4" s="18">
-        <f t="shared" si="2"/>
-        <v>0.40226210102840171</v>
+        <v>0.35072023462537338</v>
       </c>
       <c r="F4" s="18">
         <f t="shared" si="4"/>
-        <v>0.80452420205680342</v>
-      </c>
-      <c r="G4" s="49"/>
+        <v>0.70144046925074677</v>
+      </c>
+      <c r="G4" s="50"/>
       <c r="H4" s="19">
-        <f t="shared" si="3"/>
-        <v>0.20113105051420085</v>
-      </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="45"/>
+        <f t="shared" si="2"/>
+        <v>0.17536011731268669</v>
+      </c>
+      <c r="J4" s="44"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="46"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>31</v>
       </c>
-      <c r="B5" s="49"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="17">
+        <f t="shared" si="3"/>
+        <v>0.66286007608425357</v>
+      </c>
+      <c r="D5" s="18">
         <f t="shared" si="0"/>
-        <v>0.75714847916148587</v>
-      </c>
-      <c r="D5" s="18">
+        <v>1.1031844242963265</v>
+      </c>
+      <c r="E5" s="18">
         <f t="shared" si="1"/>
-        <v>1.2601066789613597</v>
-      </c>
-      <c r="E5" s="18">
-        <f t="shared" si="2"/>
-        <v>0.33764456700476031</v>
+        <v>0.2955973755927937</v>
       </c>
       <c r="F5" s="18">
         <f t="shared" si="4"/>
-        <v>0.67528913400952062</v>
-      </c>
-      <c r="G5" s="49"/>
+        <v>0.5911947511855874</v>
+      </c>
+      <c r="G5" s="50"/>
       <c r="H5" s="19">
-        <f t="shared" si="3"/>
-        <v>0.16882228350238015</v>
-      </c>
-      <c r="J5" s="43"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="45"/>
+        <f t="shared" si="2"/>
+        <v>0.14779868779639685</v>
+      </c>
+      <c r="J5" s="44"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="46"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>35</v>
       </c>
-      <c r="B6" s="49"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="17">
+        <f t="shared" si="3"/>
+        <v>0.65829824531467906</v>
+      </c>
+      <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>0.74840497018646812</v>
-      </c>
-      <c r="D6" s="18">
+        <v>0.94014732688799052</v>
+      </c>
+      <c r="E6" s="18">
         <f t="shared" si="1"/>
-        <v>1.0688330664076962</v>
-      </c>
-      <c r="E6" s="18">
-        <f t="shared" si="2"/>
-        <v>0.28639295698762274</v>
+        <v>0.2519117170059158</v>
       </c>
       <c r="F6" s="18">
         <f t="shared" si="4"/>
-        <v>0.57278591397524548</v>
-      </c>
-      <c r="G6" s="49"/>
+        <v>0.50382343401183161</v>
+      </c>
+      <c r="G6" s="50"/>
       <c r="H6" s="19">
+        <f t="shared" si="2"/>
+        <v>0.1259558585029579</v>
+      </c>
+      <c r="J6" s="44"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="46"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="40">
+        <v>40</v>
+      </c>
+      <c r="B7" s="50"/>
+      <c r="C7" s="17">
         <f t="shared" si="3"/>
-        <v>0.14319647849381137</v>
-      </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="45"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="57">
-        <v>40</v>
-      </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="17">
+        <v>0.65192533317427737</v>
+      </c>
+      <c r="D7" s="18">
         <f t="shared" si="0"/>
-        <v>0.73619022191736505</v>
-      </c>
-      <c r="D7" s="18">
+        <v>0.77693435791362231</v>
+      </c>
+      <c r="E7" s="5">
         <f t="shared" si="1"/>
-        <v>0.87735734180274849</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.23508719120956295</v>
+        <v>0.20817893377494795</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="4"/>
-        <v>0.4701743824191259</v>
-      </c>
-      <c r="G7" s="49"/>
+        <v>0.4163578675498959</v>
+      </c>
+      <c r="G7" s="50"/>
       <c r="H7" s="21">
-        <f t="shared" si="3"/>
-        <v>0.11754359560478148</v>
-      </c>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="45"/>
+        <f t="shared" si="2"/>
+        <v>0.10408946688747397</v>
+      </c>
+      <c r="J7" s="44"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="46"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>45</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="17">
+        <f t="shared" si="3"/>
+        <v>0.64485281374238579</v>
+      </c>
+      <c r="D8" s="18">
         <f t="shared" si="0"/>
-        <v>0.72263455967290602</v>
-      </c>
-      <c r="D8" s="18">
+        <v>0.64485281374238579</v>
+      </c>
+      <c r="E8" s="5">
         <f t="shared" si="1"/>
-        <v>0.72263455967290602</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" si="2"/>
-        <v>0.1936293466871751</v>
+        <v>0.17278779067920946</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="4"/>
-        <v>0.3872586933743502</v>
-      </c>
-      <c r="G8" s="49"/>
+        <v>0.34557558135841893</v>
+      </c>
+      <c r="G8" s="50"/>
       <c r="H8" s="21">
-        <f t="shared" si="3"/>
-        <v>9.6814673343587551E-2</v>
-      </c>
-      <c r="J8" s="43"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="45"/>
+        <f t="shared" si="2"/>
+        <v>8.6393895339604732E-2</v>
+      </c>
+      <c r="J8" s="44"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="46"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>50</v>
       </c>
-      <c r="B9" s="49"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="17">
+        <f t="shared" si="3"/>
+        <v>0.63713451316238479</v>
+      </c>
+      <c r="D9" s="18">
         <f t="shared" si="0"/>
-        <v>0.70784115022790406</v>
-      </c>
-      <c r="D9" s="18">
+        <v>0.53461933500487291</v>
+      </c>
+      <c r="E9" s="5">
         <f t="shared" si="1"/>
-        <v>0.59394924808833593</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" si="2"/>
-        <v>0.15914822137034215</v>
+        <v>0.14325081907261955</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="4"/>
-        <v>0.3182964427406843</v>
-      </c>
-      <c r="G9" s="49"/>
+        <v>0.2865016381452391</v>
+      </c>
+      <c r="G9" s="50"/>
       <c r="H9" s="21">
-        <f t="shared" si="3"/>
-        <v>7.9574110685171076E-2</v>
-      </c>
-      <c r="J9" s="43"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="45"/>
+        <f t="shared" si="2"/>
+        <v>7.1625409536309775E-2</v>
+      </c>
+      <c r="J9" s="44"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="46"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>55</v>
       </c>
-      <c r="B10" s="49"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="17">
+        <f t="shared" si="3"/>
+        <v>0.62882917236212554</v>
+      </c>
+      <c r="D10" s="18">
         <f t="shared" si="0"/>
-        <v>0.69192258036074072</v>
-      </c>
-      <c r="D10" s="18">
+        <v>0.44031092673413325</v>
+      </c>
+      <c r="E10" s="5">
         <f t="shared" si="1"/>
-        <v>0.4844894066261044</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="2"/>
-        <v>0.12981854524689851</v>
+        <v>0.11798095723701024</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="4"/>
-        <v>0.25963709049379702</v>
-      </c>
-      <c r="G10" s="49"/>
+        <v>0.23596191447402048</v>
+      </c>
+      <c r="G10" s="50"/>
       <c r="H10" s="21">
-        <f t="shared" si="3"/>
-        <v>6.4909272623449255E-2</v>
-      </c>
-      <c r="J10" s="43"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="45"/>
+        <f t="shared" si="2"/>
+        <v>5.8990478618505121E-2</v>
+      </c>
+      <c r="J10" s="44"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="46"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>60</v>
       </c>
-      <c r="B11" s="50"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="23">
+        <f t="shared" si="3"/>
+        <v>0.62000000000000011</v>
+      </c>
+      <c r="D11" s="24">
         <f t="shared" si="0"/>
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="D11" s="24">
+        <v>0.35795716689756818</v>
+      </c>
+      <c r="E11" s="25">
         <f t="shared" si="1"/>
-        <v>0.38971143170299755</v>
-      </c>
-      <c r="E11" s="25">
-        <f t="shared" si="2"/>
-        <v>0.10442286340599483</v>
+        <v>9.5914333795136003E-2</v>
       </c>
       <c r="F11" s="25">
         <f t="shared" si="4"/>
-        <v>0.20884572681198965</v>
-      </c>
-      <c r="G11" s="50"/>
+        <v>0.19182866759027201</v>
+      </c>
+      <c r="G11" s="51"/>
       <c r="H11" s="26">
-        <f t="shared" si="3"/>
-        <v>5.2211431702997413E-2</v>
-      </c>
-      <c r="J11" s="46"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="48"/>
+        <f t="shared" si="2"/>
+        <v>4.7957166897568002E-2</v>
+      </c>
+      <c r="J11" s="47"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="49"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2498,7 +2498,7 @@
       </c>
       <c r="B15" s="5">
         <f>D2</f>
-        <v>1.9859485445578982</v>
+        <v>1.7230854575774166</v>
       </c>
       <c r="C15" s="8">
         <f>$G$2</f>
@@ -2506,11 +2506,11 @@
       </c>
       <c r="D15" s="4">
         <f>-TRUNC($C15/2)*$H2</f>
-        <v>-0.53213330872405229</v>
+        <v>-0.46169935684768032</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ref="E15:F19" si="5">D15+$H2</f>
-        <v>-0.26606665436202614</v>
+        <v>-0.23084967842384016</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="5"/>
@@ -2518,11 +2518,11 @@
       </c>
       <c r="G15" s="5">
         <f t="shared" ref="G15:H15" si="6">F15+$H2</f>
-        <v>0.26606665436202614</v>
+        <v>0.23084967842384016</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="6"/>
-        <v>0.53213330872405229</v>
+        <v>0.46169935684768032</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="B16" s="5">
         <f t="shared" ref="B16:B19" si="8">D3</f>
-        <v>1.7297076326610017</v>
+        <v>1.5040033964861734</v>
       </c>
       <c r="C16" s="8">
         <f t="shared" ref="C16:C19" si="9">$G$2</f>
@@ -2546,11 +2546,11 @@
       </c>
       <c r="D16" s="4">
         <f>-TRUNC($C16/2)*$H3</f>
-        <v>-0.4634737633134644</v>
+        <v>-0.40299649550213579</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="5"/>
-        <v>-0.2317368816567322</v>
+        <v>-0.20149824775106789</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="5"/>
@@ -2558,11 +2558,11 @@
       </c>
       <c r="G16" s="5">
         <f t="shared" ref="G16:H16" si="10">F16+$H3</f>
-        <v>0.2317368816567322</v>
+        <v>0.20149824775106789</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="10"/>
-        <v>0.4634737633134644</v>
+        <v>0.40299649550213579</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="B17" s="5">
         <f t="shared" si="8"/>
-        <v>1.5012625989974</v>
+        <v>1.3089057348643709</v>
       </c>
       <c r="C17" s="8">
         <f t="shared" si="9"/>
@@ -2586,11 +2586,11 @@
       </c>
       <c r="D17" s="4">
         <f>-TRUNC($C17/2)*$H4</f>
-        <v>-0.40226210102840171</v>
+        <v>-0.35072023462537338</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="5"/>
-        <v>-0.20113105051420085</v>
+        <v>-0.17536011731268669</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="5"/>
@@ -2598,11 +2598,11 @@
       </c>
       <c r="G17" s="5">
         <f t="shared" ref="G17:H17" si="11">F17+$H4</f>
-        <v>0.20113105051420085</v>
+        <v>0.17536011731268669</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" si="11"/>
-        <v>0.40226210102840171</v>
+        <v>0.35072023462537338</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="B18" s="5">
         <f t="shared" si="8"/>
-        <v>1.2601066789613597</v>
+        <v>1.1031844242963265</v>
       </c>
       <c r="C18" s="8">
         <f t="shared" si="9"/>
@@ -2626,11 +2626,11 @@
       </c>
       <c r="D18" s="4">
         <f>-TRUNC($C18/2)*$H5</f>
-        <v>-0.33764456700476031</v>
+        <v>-0.2955973755927937</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="5"/>
-        <v>-0.16882228350238015</v>
+        <v>-0.14779868779639685</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="5"/>
@@ -2638,11 +2638,11 @@
       </c>
       <c r="G18" s="5">
         <f t="shared" ref="G18:H18" si="12">F18+$H5</f>
-        <v>0.16882228350238015</v>
+        <v>0.14779868779639685</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" si="12"/>
-        <v>0.33764456700476031</v>
+        <v>0.2955973755927937</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="B19" s="5">
         <f t="shared" si="8"/>
-        <v>1.0688330664076962</v>
+        <v>0.94014732688799052</v>
       </c>
       <c r="C19" s="8">
         <f t="shared" si="9"/>
@@ -2666,11 +2666,11 @@
       </c>
       <c r="D19" s="6">
         <f>-TRUNC($C19/2)*$H6</f>
-        <v>-0.28639295698762274</v>
+        <v>-0.2519117170059158</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" si="5"/>
-        <v>-0.14319647849381137</v>
+        <v>-0.1259558585029579</v>
       </c>
       <c r="F19" s="7">
         <f t="shared" si="5"/>
@@ -2678,11 +2678,11 @@
       </c>
       <c r="G19" s="7">
         <f t="shared" ref="G19:H19" si="13">F19+$H6</f>
-        <v>0.14319647849381137</v>
+        <v>0.1259558585029579</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="13"/>
-        <v>0.28639295698762274</v>
+        <v>0.2519117170059158</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -2756,23 +2756,23 @@
       <c r="C22" s="8"/>
       <c r="D22" s="4">
         <f>$B$15</f>
-        <v>1.9859485445578982</v>
+        <v>1.7230854575774166</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ref="E22:H22" si="14">$B$15</f>
-        <v>1.9859485445578982</v>
+        <v>1.7230854575774166</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="14"/>
-        <v>1.9859485445578982</v>
+        <v>1.7230854575774166</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="14"/>
-        <v>1.9859485445578982</v>
+        <v>1.7230854575774166</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" si="14"/>
-        <v>1.9859485445578982</v>
+        <v>1.7230854575774166</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -2790,23 +2790,23 @@
       <c r="C23" s="8"/>
       <c r="D23" s="4">
         <f>$B$16</f>
-        <v>1.7297076326610017</v>
+        <v>1.5040033964861734</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ref="E23:H23" si="15">$B$16</f>
-        <v>1.7297076326610017</v>
+        <v>1.5040033964861734</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="15"/>
-        <v>1.7297076326610017</v>
+        <v>1.5040033964861734</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="15"/>
-        <v>1.7297076326610017</v>
+        <v>1.5040033964861734</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" si="15"/>
-        <v>1.7297076326610017</v>
+        <v>1.5040033964861734</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -2824,23 +2824,23 @@
       <c r="C24" s="8"/>
       <c r="D24" s="4">
         <f>$B$17</f>
-        <v>1.5012625989974</v>
+        <v>1.3089057348643709</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ref="E24:H24" si="17">$B$17</f>
-        <v>1.5012625989974</v>
+        <v>1.3089057348643709</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="17"/>
-        <v>1.5012625989974</v>
+        <v>1.3089057348643709</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="17"/>
-        <v>1.5012625989974</v>
+        <v>1.3089057348643709</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" si="17"/>
-        <v>1.5012625989974</v>
+        <v>1.3089057348643709</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -2858,23 +2858,23 @@
       <c r="C25" s="8"/>
       <c r="D25" s="4">
         <f>$B$18</f>
-        <v>1.2601066789613597</v>
+        <v>1.1031844242963265</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ref="E25:H25" si="18">$B$18</f>
-        <v>1.2601066789613597</v>
+        <v>1.1031844242963265</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="18"/>
-        <v>1.2601066789613597</v>
+        <v>1.1031844242963265</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="18"/>
-        <v>1.2601066789613597</v>
+        <v>1.1031844242963265</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" si="18"/>
-        <v>1.2601066789613597</v>
+        <v>1.1031844242963265</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -2892,23 +2892,23 @@
       <c r="C26" s="31"/>
       <c r="D26" s="32">
         <f>$B$19</f>
-        <v>1.0688330664076962</v>
+        <v>0.94014732688799052</v>
       </c>
       <c r="E26" s="25">
         <f t="shared" ref="E26:H26" si="19">$B$19</f>
-        <v>1.0688330664076962</v>
+        <v>0.94014732688799052</v>
       </c>
       <c r="F26" s="25">
         <f t="shared" si="19"/>
-        <v>1.0688330664076962</v>
+        <v>0.94014732688799052</v>
       </c>
       <c r="G26" s="25">
         <f t="shared" si="19"/>
-        <v>1.0688330664076962</v>
+        <v>0.94014732688799052</v>
       </c>
       <c r="H26" s="25">
         <f t="shared" si="19"/>
-        <v>1.0688330664076962</v>
+        <v>0.94014732688799052</v>
       </c>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
@@ -2958,55 +2958,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C1" s="51">
+      <c r="C1" s="55">
         <f>grid!$A$15</f>
         <v>21.3</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="51">
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="55">
         <f>grid!$A$16</f>
         <v>24</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="51">
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="55">
         <f>grid!$A$17</f>
         <v>27</v>
       </c>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="51">
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="55">
         <f>grid!$A$18</f>
         <v>31</v>
       </c>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="51">
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="55">
         <f>grid!$A$19</f>
         <v>35</v>
       </c>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="53"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="57"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C2" s="1">
         <f>grid!D15</f>
-        <v>-0.53213330872405229</v>
+        <v>-0.46169935684768032</v>
       </c>
       <c r="D2" s="2">
         <f>grid!E15</f>
-        <v>-0.26606665436202614</v>
+        <v>-0.23084967842384016</v>
       </c>
       <c r="E2" s="2">
         <f>grid!F15</f>
@@ -3014,19 +3014,19 @@
       </c>
       <c r="F2" s="2">
         <f>grid!G15</f>
-        <v>0.26606665436202614</v>
+        <v>0.23084967842384016</v>
       </c>
       <c r="G2" s="3">
         <f>grid!H15</f>
-        <v>0.53213330872405229</v>
+        <v>0.46169935684768032</v>
       </c>
       <c r="H2" s="1">
         <f>grid!D16</f>
-        <v>-0.4634737633134644</v>
+        <v>-0.40299649550213579</v>
       </c>
       <c r="I2" s="2">
         <f>grid!E16</f>
-        <v>-0.2317368816567322</v>
+        <v>-0.20149824775106789</v>
       </c>
       <c r="J2" s="2">
         <f>grid!F16</f>
@@ -3034,19 +3034,19 @@
       </c>
       <c r="K2" s="2">
         <f>grid!G16</f>
-        <v>0.2317368816567322</v>
+        <v>0.20149824775106789</v>
       </c>
       <c r="L2" s="3">
         <f>grid!H16</f>
-        <v>0.4634737633134644</v>
+        <v>0.40299649550213579</v>
       </c>
       <c r="M2" s="1">
         <f>grid!D17</f>
-        <v>-0.40226210102840171</v>
+        <v>-0.35072023462537338</v>
       </c>
       <c r="N2" s="2">
         <f>grid!E17</f>
-        <v>-0.20113105051420085</v>
+        <v>-0.17536011731268669</v>
       </c>
       <c r="O2" s="2">
         <f>grid!F17</f>
@@ -3054,19 +3054,19 @@
       </c>
       <c r="P2" s="2">
         <f>grid!G17</f>
-        <v>0.20113105051420085</v>
+        <v>0.17536011731268669</v>
       </c>
       <c r="Q2" s="3">
         <f>grid!H17</f>
-        <v>0.40226210102840171</v>
+        <v>0.35072023462537338</v>
       </c>
       <c r="R2" s="1">
         <f>grid!D18</f>
-        <v>-0.33764456700476031</v>
+        <v>-0.2955973755927937</v>
       </c>
       <c r="S2" s="2">
         <f>grid!E18</f>
-        <v>-0.16882228350238015</v>
+        <v>-0.14779868779639685</v>
       </c>
       <c r="T2" s="2">
         <f>grid!F18</f>
@@ -3074,19 +3074,19 @@
       </c>
       <c r="U2" s="2">
         <f>grid!G18</f>
-        <v>0.16882228350238015</v>
+        <v>0.14779868779639685</v>
       </c>
       <c r="V2" s="3">
         <f>grid!H18</f>
-        <v>0.33764456700476031</v>
+        <v>0.2955973755927937</v>
       </c>
       <c r="W2" s="1">
         <f>grid!D19</f>
-        <v>-0.28639295698762274</v>
+        <v>-0.2519117170059158</v>
       </c>
       <c r="X2" s="2">
         <f>grid!E19</f>
-        <v>-0.14319647849381137</v>
+        <v>-0.1259558585029579</v>
       </c>
       <c r="Y2" s="2">
         <f>grid!F19</f>
@@ -3094,21 +3094,21 @@
       </c>
       <c r="Z2" s="2">
         <f>grid!G19</f>
-        <v>0.14319647849381137</v>
+        <v>0.1259558585029579</v>
       </c>
       <c r="AA2" s="3">
         <f>grid!H19</f>
-        <v>0.28639295698762274</v>
+        <v>0.2519117170059158</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54">
+      <c r="A3" s="52">
         <f t="shared" ref="A3" si="0">$C$1</f>
         <v>21.3</v>
       </c>
       <c r="B3" s="34">
         <f>grid!$D$22</f>
-        <v>1.9859485445578982</v>
+        <v>1.7230854575774166</v>
       </c>
       <c r="C3" s="10"/>
       <c r="G3" s="12"/>
@@ -3122,10 +3122,10 @@
       <c r="AA3" s="12"/>
     </row>
     <row r="4" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="35">
         <f>$B$3</f>
-        <v>1.9859485445578982</v>
+        <v>1.7230854575774166</v>
       </c>
       <c r="C4" s="9"/>
       <c r="G4" s="37"/>
@@ -3139,10 +3139,10 @@
       <c r="AA4" s="37"/>
     </row>
     <row r="5" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="35">
         <f t="shared" ref="B5:B7" si="1">$B$3</f>
-        <v>1.9859485445578982</v>
+        <v>1.7230854575774166</v>
       </c>
       <c r="C5" s="9"/>
       <c r="G5" s="37"/>
@@ -3156,10 +3156,10 @@
       <c r="AA5" s="37"/>
     </row>
     <row r="6" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="35">
         <f t="shared" si="1"/>
-        <v>1.9859485445578982</v>
+        <v>1.7230854575774166</v>
       </c>
       <c r="C6" s="9"/>
       <c r="G6" s="37"/>
@@ -3173,10 +3173,10 @@
       <c r="AA6" s="37"/>
     </row>
     <row r="7" spans="1:27" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="36">
         <f t="shared" si="1"/>
-        <v>1.9859485445578982</v>
+        <v>1.7230854575774166</v>
       </c>
       <c r="C7" s="38"/>
       <c r="G7" s="39"/>
@@ -3190,13 +3190,13 @@
       <c r="AA7" s="39"/>
     </row>
     <row r="8" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54">
+      <c r="A8" s="52">
         <f t="shared" ref="A8" si="2">$H$1</f>
         <v>24</v>
       </c>
       <c r="B8" s="34">
         <f>grid!$D$23</f>
-        <v>1.7297076326610017</v>
+        <v>1.5040033964861734</v>
       </c>
       <c r="C8" s="10"/>
       <c r="G8" s="12"/>
@@ -3210,10 +3210,10 @@
       <c r="AA8" s="12"/>
     </row>
     <row r="9" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="35">
         <f>B8</f>
-        <v>1.7297076326610017</v>
+        <v>1.5040033964861734</v>
       </c>
       <c r="C9" s="9"/>
       <c r="G9" s="37"/>
@@ -3227,10 +3227,10 @@
       <c r="AA9" s="37"/>
     </row>
     <row r="10" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="35">
         <f>B8</f>
-        <v>1.7297076326610017</v>
+        <v>1.5040033964861734</v>
       </c>
       <c r="C10" s="9"/>
       <c r="G10" s="37"/>
@@ -3244,10 +3244,10 @@
       <c r="AA10" s="37"/>
     </row>
     <row r="11" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="35">
         <f>B8</f>
-        <v>1.7297076326610017</v>
+        <v>1.5040033964861734</v>
       </c>
       <c r="C11" s="9"/>
       <c r="G11" s="37"/>
@@ -3261,10 +3261,10 @@
       <c r="AA11" s="37"/>
     </row>
     <row r="12" spans="1:27" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="36">
         <f>B8</f>
-        <v>1.7297076326610017</v>
+        <v>1.5040033964861734</v>
       </c>
       <c r="C12" s="38"/>
       <c r="G12" s="39"/>
@@ -3278,13 +3278,13 @@
       <c r="AA12" s="39"/>
     </row>
     <row r="13" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54">
+      <c r="A13" s="52">
         <f t="shared" ref="A13" si="3">$M$1</f>
         <v>27</v>
       </c>
       <c r="B13" s="34">
         <f>grid!$D$24</f>
-        <v>1.5012625989974</v>
+        <v>1.3089057348643709</v>
       </c>
       <c r="C13" s="10"/>
       <c r="G13" s="12"/>
@@ -3298,10 +3298,10 @@
       <c r="AA13" s="12"/>
     </row>
     <row r="14" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="35">
         <f>B13</f>
-        <v>1.5012625989974</v>
+        <v>1.3089057348643709</v>
       </c>
       <c r="C14" s="9"/>
       <c r="G14" s="37"/>
@@ -3315,10 +3315,10 @@
       <c r="AA14" s="37"/>
     </row>
     <row r="15" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="35">
         <f>B13</f>
-        <v>1.5012625989974</v>
+        <v>1.3089057348643709</v>
       </c>
       <c r="C15" s="9"/>
       <c r="G15" s="37"/>
@@ -3332,10 +3332,10 @@
       <c r="AA15" s="37"/>
     </row>
     <row r="16" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="35">
         <f>B13</f>
-        <v>1.5012625989974</v>
+        <v>1.3089057348643709</v>
       </c>
       <c r="C16" s="9"/>
       <c r="G16" s="37"/>
@@ -3349,10 +3349,10 @@
       <c r="AA16" s="37"/>
     </row>
     <row r="17" spans="1:27" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="36">
         <f>B13</f>
-        <v>1.5012625989974</v>
+        <v>1.3089057348643709</v>
       </c>
       <c r="C17" s="38"/>
       <c r="G17" s="39"/>
@@ -3366,13 +3366,13 @@
       <c r="AA17" s="39"/>
     </row>
     <row r="18" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54">
+      <c r="A18" s="52">
         <f t="shared" ref="A18" si="4">$R$1</f>
         <v>31</v>
       </c>
       <c r="B18" s="34">
         <f>grid!$D$25</f>
-        <v>1.2601066789613597</v>
+        <v>1.1031844242963265</v>
       </c>
       <c r="C18" s="10"/>
       <c r="G18" s="12"/>
@@ -3386,10 +3386,10 @@
       <c r="AA18" s="12"/>
     </row>
     <row r="19" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="35">
         <f>$B$18</f>
-        <v>1.2601066789613597</v>
+        <v>1.1031844242963265</v>
       </c>
       <c r="C19" s="9"/>
       <c r="G19" s="37"/>
@@ -3403,10 +3403,10 @@
       <c r="AA19" s="37"/>
     </row>
     <row r="20" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="35">
         <f t="shared" ref="B20:B22" si="5">$B$18</f>
-        <v>1.2601066789613597</v>
+        <v>1.1031844242963265</v>
       </c>
       <c r="C20" s="9"/>
       <c r="G20" s="37"/>
@@ -3420,10 +3420,10 @@
       <c r="AA20" s="37"/>
     </row>
     <row r="21" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="35">
         <f t="shared" si="5"/>
-        <v>1.2601066789613597</v>
+        <v>1.1031844242963265</v>
       </c>
       <c r="C21" s="9"/>
       <c r="G21" s="37"/>
@@ -3437,10 +3437,10 @@
       <c r="AA21" s="37"/>
     </row>
     <row r="22" spans="1:27" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="36">
         <f t="shared" si="5"/>
-        <v>1.2601066789613597</v>
+        <v>1.1031844242963265</v>
       </c>
       <c r="C22" s="38"/>
       <c r="G22" s="39"/>
@@ -3454,13 +3454,13 @@
       <c r="AA22" s="39"/>
     </row>
     <row r="23" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="54">
+      <c r="A23" s="52">
         <f t="shared" ref="A23" si="6">$W$1</f>
         <v>35</v>
       </c>
       <c r="B23" s="34">
         <f>grid!$D$26</f>
-        <v>1.0688330664076962</v>
+        <v>0.94014732688799052</v>
       </c>
       <c r="C23" s="10"/>
       <c r="G23" s="12"/>
@@ -3474,10 +3474,10 @@
       <c r="AA23" s="12"/>
     </row>
     <row r="24" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="35">
         <f>$B$23</f>
-        <v>1.0688330664076962</v>
+        <v>0.94014732688799052</v>
       </c>
       <c r="C24" s="9"/>
       <c r="G24" s="37"/>
@@ -3491,10 +3491,10 @@
       <c r="AA24" s="37"/>
     </row>
     <row r="25" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="35">
         <f t="shared" ref="B25:B27" si="7">$B$23</f>
-        <v>1.0688330664076962</v>
+        <v>0.94014732688799052</v>
       </c>
       <c r="C25" s="9"/>
       <c r="G25" s="37"/>
@@ -3508,10 +3508,10 @@
       <c r="AA25" s="37"/>
     </row>
     <row r="26" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="35">
         <f t="shared" si="7"/>
-        <v>1.0688330664076962</v>
+        <v>0.94014732688799052</v>
       </c>
       <c r="C26" s="9"/>
       <c r="G26" s="37"/>
@@ -3525,10 +3525,10 @@
       <c r="AA26" s="37"/>
     </row>
     <row r="27" spans="1:27" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="36">
         <f t="shared" si="7"/>
-        <v>1.0688330664076962</v>
+        <v>0.94014732688799052</v>
       </c>
       <c r="C27" s="38"/>
       <c r="G27" s="39"/>
@@ -3543,16 +3543,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="W1:AA1"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:A27"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="W1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/_hydro-radar-grid.xlsx
+++ b/_hydro-radar-grid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giord\Desktop\hrc-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF8EEEA-778E-47D6-B17C-92ECBC842B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E15C95C-EC13-487A-B7A0-D3ED521DF1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{C60B9B42-610B-418E-B17A-28126607FE42}"/>
   </bookViews>
@@ -462,6 +462,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -469,15 +478,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2088,7 +2088,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2958,46 +2958,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C1" s="55">
+      <c r="C1" s="52">
         <f>grid!$A$15</f>
         <v>21.3</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="55">
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="52">
         <f>grid!$A$16</f>
         <v>24</v>
       </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="55">
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="52">
         <f>grid!$A$17</f>
         <v>27</v>
       </c>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="55">
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="52">
         <f>grid!$A$18</f>
         <v>31</v>
       </c>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="55">
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="52">
         <f>grid!$A$19</f>
         <v>35</v>
       </c>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="57"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="54"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C2" s="1">
@@ -3102,7 +3102,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52">
+      <c r="A3" s="55">
         <f t="shared" ref="A3" si="0">$C$1</f>
         <v>21.3</v>
       </c>
@@ -3122,7 +3122,7 @@
       <c r="AA3" s="12"/>
     </row>
     <row r="4" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="35">
         <f>$B$3</f>
         <v>1.7230854575774166</v>
@@ -3139,7 +3139,7 @@
       <c r="AA4" s="37"/>
     </row>
     <row r="5" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="35">
         <f t="shared" ref="B5:B7" si="1">$B$3</f>
         <v>1.7230854575774166</v>
@@ -3156,7 +3156,7 @@
       <c r="AA5" s="37"/>
     </row>
     <row r="6" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="35">
         <f t="shared" si="1"/>
         <v>1.7230854575774166</v>
@@ -3173,7 +3173,7 @@
       <c r="AA6" s="37"/>
     </row>
     <row r="7" spans="1:27" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="36">
         <f t="shared" si="1"/>
         <v>1.7230854575774166</v>
@@ -3190,7 +3190,7 @@
       <c r="AA7" s="39"/>
     </row>
     <row r="8" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52">
+      <c r="A8" s="55">
         <f t="shared" ref="A8" si="2">$H$1</f>
         <v>24</v>
       </c>
@@ -3210,7 +3210,7 @@
       <c r="AA8" s="12"/>
     </row>
     <row r="9" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="35">
         <f>B8</f>
         <v>1.5040033964861734</v>
@@ -3227,7 +3227,7 @@
       <c r="AA9" s="37"/>
     </row>
     <row r="10" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="35">
         <f>B8</f>
         <v>1.5040033964861734</v>
@@ -3244,7 +3244,7 @@
       <c r="AA10" s="37"/>
     </row>
     <row r="11" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="35">
         <f>B8</f>
         <v>1.5040033964861734</v>
@@ -3261,7 +3261,7 @@
       <c r="AA11" s="37"/>
     </row>
     <row r="12" spans="1:27" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="36">
         <f>B8</f>
         <v>1.5040033964861734</v>
@@ -3278,7 +3278,7 @@
       <c r="AA12" s="39"/>
     </row>
     <row r="13" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="52">
+      <c r="A13" s="55">
         <f t="shared" ref="A13" si="3">$M$1</f>
         <v>27</v>
       </c>
@@ -3298,7 +3298,7 @@
       <c r="AA13" s="12"/>
     </row>
     <row r="14" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="35">
         <f>B13</f>
         <v>1.3089057348643709</v>
@@ -3315,7 +3315,7 @@
       <c r="AA14" s="37"/>
     </row>
     <row r="15" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="35">
         <f>B13</f>
         <v>1.3089057348643709</v>
@@ -3332,7 +3332,7 @@
       <c r="AA15" s="37"/>
     </row>
     <row r="16" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="35">
         <f>B13</f>
         <v>1.3089057348643709</v>
@@ -3349,7 +3349,7 @@
       <c r="AA16" s="37"/>
     </row>
     <row r="17" spans="1:27" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="36">
         <f>B13</f>
         <v>1.3089057348643709</v>
@@ -3366,7 +3366,7 @@
       <c r="AA17" s="39"/>
     </row>
     <row r="18" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52">
+      <c r="A18" s="55">
         <f t="shared" ref="A18" si="4">$R$1</f>
         <v>31</v>
       </c>
@@ -3386,7 +3386,7 @@
       <c r="AA18" s="12"/>
     </row>
     <row r="19" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="35">
         <f>$B$18</f>
         <v>1.1031844242963265</v>
@@ -3403,7 +3403,7 @@
       <c r="AA19" s="37"/>
     </row>
     <row r="20" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="35">
         <f t="shared" ref="B20:B22" si="5">$B$18</f>
         <v>1.1031844242963265</v>
@@ -3420,7 +3420,7 @@
       <c r="AA20" s="37"/>
     </row>
     <row r="21" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="35">
         <f t="shared" si="5"/>
         <v>1.1031844242963265</v>
@@ -3437,7 +3437,7 @@
       <c r="AA21" s="37"/>
     </row>
     <row r="22" spans="1:27" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="36">
         <f t="shared" si="5"/>
         <v>1.1031844242963265</v>
@@ -3454,7 +3454,7 @@
       <c r="AA22" s="39"/>
     </row>
     <row r="23" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="52">
+      <c r="A23" s="55">
         <f t="shared" ref="A23" si="6">$W$1</f>
         <v>35</v>
       </c>
@@ -3474,7 +3474,7 @@
       <c r="AA23" s="12"/>
     </row>
     <row r="24" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="35">
         <f>$B$23</f>
         <v>0.94014732688799052</v>
@@ -3491,7 +3491,7 @@
       <c r="AA24" s="37"/>
     </row>
     <row r="25" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="35">
         <f t="shared" ref="B25:B27" si="7">$B$23</f>
         <v>0.94014732688799052</v>
@@ -3508,7 +3508,7 @@
       <c r="AA25" s="37"/>
     </row>
     <row r="26" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="35">
         <f t="shared" si="7"/>
         <v>0.94014732688799052</v>
@@ -3525,7 +3525,7 @@
       <c r="AA26" s="37"/>
     </row>
     <row r="27" spans="1:27" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="36">
         <f t="shared" si="7"/>
         <v>0.94014732688799052</v>
@@ -3543,16 +3543,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A27"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/_hydro-radar-grid.xlsx
+++ b/_hydro-radar-grid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giord\Desktop\hrc-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E15C95C-EC13-487A-B7A0-D3ED521DF1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE06594-3E0F-4585-A1B0-CEC0C105478D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{C60B9B42-610B-418E-B17A-28126607FE42}"/>
   </bookViews>
@@ -152,12 +152,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="21">
@@ -393,7 +399,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -462,6 +467,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -470,15 +484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -525,7 +531,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>21,3</c:v>
+                  <c:v>21,7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -559,19 +565,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.46169935684768032</c:v>
+                  <c:v>-0.45213604844668243</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.23084967842384016</c:v>
+                  <c:v>-0.22606802422334121</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23084967842384016</c:v>
+                  <c:v>0.22606802422334121</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.46169935684768032</c:v>
+                  <c:v>0.45213604844668243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -583,19 +589,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.7230854575774166</c:v>
+                  <c:v>1.6873947047364422</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7230854575774166</c:v>
+                  <c:v>1.6873947047364422</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7230854575774166</c:v>
+                  <c:v>1.6873947047364422</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7230854575774166</c:v>
+                  <c:v>1.6873947047364422</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7230854575774166</c:v>
+                  <c:v>1.6873947047364422</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -616,7 +622,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>24,1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -650,19 +656,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.40299649550213579</c:v>
+                  <c:v>-0.40105982483943353</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.20149824775106789</c:v>
+                  <c:v>-0.20052991241971677</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20149824775106789</c:v>
+                  <c:v>0.20052991241971677</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.40299649550213579</c:v>
+                  <c:v>0.40105982483943353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -674,19 +680,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.5040033964861734</c:v>
+                  <c:v>1.4967756431754404</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5040033964861734</c:v>
+                  <c:v>1.4967756431754404</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5040033964861734</c:v>
+                  <c:v>1.4967756431754404</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5040033964861734</c:v>
+                  <c:v>1.4967756431754404</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5040033964861734</c:v>
+                  <c:v>1.4967756431754404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -707,7 +713,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -741,19 +747,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.35072023462537338</c:v>
+                  <c:v>-0.33560013885723755</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.17536011731268669</c:v>
+                  <c:v>-0.16780006942861878</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17536011731268669</c:v>
+                  <c:v>0.16780006942861878</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35072023462537338</c:v>
+                  <c:v>0.33560013885723755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -765,19 +771,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.3089057348643709</c:v>
+                  <c:v>1.2524767692423808</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3089057348643709</c:v>
+                  <c:v>1.2524767692423808</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3089057348643709</c:v>
+                  <c:v>1.2524767692423808</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3089057348643709</c:v>
+                  <c:v>1.2524767692423808</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3089057348643709</c:v>
+                  <c:v>1.2524767692423808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -798,7 +804,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>31</c:v>
+                  <c:v>30,8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -832,19 +838,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.2955973755927937</c:v>
+                  <c:v>-0.29804497119035273</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.14779868779639685</c:v>
+                  <c:v>-0.14902248559517636</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14779868779639685</c:v>
+                  <c:v>0.14902248559517636</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2955973755927937</c:v>
+                  <c:v>0.29804497119035273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -856,19 +862,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.1031844242963265</c:v>
+                  <c:v>1.1123189754227987</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1031844242963265</c:v>
+                  <c:v>1.1123189754227987</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1031844242963265</c:v>
+                  <c:v>1.1123189754227987</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1031844242963265</c:v>
+                  <c:v>1.1123189754227987</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1031844242963265</c:v>
+                  <c:v>1.1123189754227987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -889,7 +895,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>35,6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -923,19 +929,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.2519117170059158</c:v>
+                  <c:v>-0.24610784411303252</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.1259558585029579</c:v>
+                  <c:v>-0.12305392205651626</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1259558585029579</c:v>
+                  <c:v>0.12305392205651626</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2519117170059158</c:v>
+                  <c:v>0.24610784411303252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -947,19 +953,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.94014732688799052</c:v>
+                  <c:v>0.9184869783710784</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94014732688799052</c:v>
+                  <c:v>0.9184869783710784</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94014732688799052</c:v>
+                  <c:v>0.9184869783710784</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94014732688799052</c:v>
+                  <c:v>0.9184869783710784</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94014732688799052</c:v>
+                  <c:v>0.9184869783710784</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2088,7 +2094,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2131,176 +2137,176 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
-        <v>21.3</v>
-      </c>
-      <c r="B2" s="50">
+      <c r="A2" s="57">
+        <v>21.7</v>
+      </c>
+      <c r="B2" s="49">
         <v>15</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="16">
         <f>0.56+0.12*COS(RADIANS(A2))</f>
-        <v>0.67180294731026591</v>
-      </c>
-      <c r="D2" s="18">
+        <v>0.67149590858408681</v>
+      </c>
+      <c r="D2" s="17">
         <f t="shared" ref="D2:D11" si="0">$C2*_xlfn.COT(RADIANS(A2))</f>
-        <v>1.7230854575774166</v>
-      </c>
-      <c r="E2" s="18">
+        <v>1.6873947047364422</v>
+      </c>
+      <c r="E2" s="17">
         <f t="shared" ref="E2:E11" si="1">D2*TAN(RADIANS($B$2))</f>
-        <v>0.46169935684768032</v>
-      </c>
-      <c r="F2" s="18">
+        <v>0.45213604844668243</v>
+      </c>
+      <c r="F2" s="17">
         <f>E2*2</f>
-        <v>0.92339871369536064</v>
-      </c>
-      <c r="G2" s="50">
+        <v>0.90427209689336485</v>
+      </c>
+      <c r="G2" s="49">
         <v>5</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="18">
         <f t="shared" ref="H2:H11" si="2">F2/($G$2-1)</f>
-        <v>0.23084967842384016</v>
-      </c>
-      <c r="J2" s="41" t="s">
+        <v>0.22606802422334121</v>
+      </c>
+      <c r="J2" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
-        <v>24</v>
-      </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="17">
+      <c r="A3" s="57">
+        <v>24.1</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="16">
         <f t="shared" ref="C3:C11" si="3">0.56+0.12*COS(RADIANS(A3))</f>
-        <v>0.66962545491711212</v>
-      </c>
-      <c r="D3" s="18">
+        <v>0.66954010126796515</v>
+      </c>
+      <c r="D3" s="17">
         <f t="shared" si="0"/>
-        <v>1.5040033964861734</v>
-      </c>
-      <c r="E3" s="18">
+        <v>1.4967756431754404</v>
+      </c>
+      <c r="E3" s="17">
         <f t="shared" si="1"/>
-        <v>0.40299649550213579</v>
-      </c>
-      <c r="F3" s="18">
+        <v>0.40105982483943353</v>
+      </c>
+      <c r="F3" s="17">
         <f t="shared" ref="F3:F11" si="4">E3*2</f>
-        <v>0.80599299100427158</v>
-      </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="19">
+        <v>0.80211964967886706</v>
+      </c>
+      <c r="G3" s="49"/>
+      <c r="H3" s="18">
         <f t="shared" si="2"/>
-        <v>0.20149824775106789</v>
-      </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+        <v>0.20052991241971677</v>
+      </c>
+      <c r="J3" s="43"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="45"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
-        <v>27</v>
-      </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="17">
+      <c r="A4" s="57">
+        <v>28</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="16">
         <f t="shared" si="3"/>
-        <v>0.66692078290260426</v>
-      </c>
-      <c r="D4" s="18">
+        <v>0.66595371114307134</v>
+      </c>
+      <c r="D4" s="17">
         <f t="shared" si="0"/>
-        <v>1.3089057348643709</v>
-      </c>
-      <c r="E4" s="18">
+        <v>1.2524767692423808</v>
+      </c>
+      <c r="E4" s="17">
         <f t="shared" si="1"/>
-        <v>0.35072023462537338</v>
-      </c>
-      <c r="F4" s="18">
+        <v>0.33560013885723755</v>
+      </c>
+      <c r="F4" s="17">
         <f t="shared" si="4"/>
-        <v>0.70144046925074677</v>
-      </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="19">
+        <v>0.6712002777144751</v>
+      </c>
+      <c r="G4" s="49"/>
+      <c r="H4" s="18">
         <f t="shared" si="2"/>
-        <v>0.17536011731268669</v>
-      </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="46"/>
+        <v>0.16780006942861878</v>
+      </c>
+      <c r="J4" s="43"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="45"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
-        <v>31</v>
-      </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="17">
+      <c r="A5" s="57">
+        <v>30.8</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="16">
         <f t="shared" si="3"/>
-        <v>0.66286007608425357</v>
-      </c>
-      <c r="D5" s="18">
+        <v>0.66307518763167983</v>
+      </c>
+      <c r="D5" s="17">
         <f t="shared" si="0"/>
-        <v>1.1031844242963265</v>
-      </c>
-      <c r="E5" s="18">
+        <v>1.1123189754227987</v>
+      </c>
+      <c r="E5" s="17">
         <f t="shared" si="1"/>
-        <v>0.2955973755927937</v>
-      </c>
-      <c r="F5" s="18">
+        <v>0.29804497119035273</v>
+      </c>
+      <c r="F5" s="17">
         <f t="shared" si="4"/>
-        <v>0.5911947511855874</v>
-      </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="19">
+        <v>0.59608994238070545</v>
+      </c>
+      <c r="G5" s="49"/>
+      <c r="H5" s="18">
         <f t="shared" si="2"/>
-        <v>0.14779868779639685</v>
-      </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="46"/>
+        <v>0.14902248559517636</v>
+      </c>
+      <c r="J5" s="43"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="45"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
-        <v>35</v>
-      </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="17">
+      <c r="A6" s="57">
+        <v>35.6</v>
+      </c>
+      <c r="B6" s="49"/>
+      <c r="C6" s="16">
         <f t="shared" si="3"/>
-        <v>0.65829824531467906</v>
-      </c>
-      <c r="D6" s="18">
+        <v>0.65757209132564332</v>
+      </c>
+      <c r="D6" s="17">
         <f t="shared" si="0"/>
-        <v>0.94014732688799052</v>
-      </c>
-      <c r="E6" s="18">
+        <v>0.9184869783710784</v>
+      </c>
+      <c r="E6" s="17">
         <f t="shared" si="1"/>
-        <v>0.2519117170059158</v>
-      </c>
-      <c r="F6" s="18">
+        <v>0.24610784411303252</v>
+      </c>
+      <c r="F6" s="17">
         <f t="shared" si="4"/>
-        <v>0.50382343401183161</v>
-      </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="19">
+        <v>0.49221568822606504</v>
+      </c>
+      <c r="G6" s="49"/>
+      <c r="H6" s="18">
         <f t="shared" si="2"/>
-        <v>0.1259558585029579</v>
-      </c>
-      <c r="J6" s="44"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="46"/>
+        <v>0.12305392205651626</v>
+      </c>
+      <c r="J6" s="43"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="45"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="40">
+      <c r="A7" s="39">
         <v>40</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="17">
+      <c r="B7" s="49"/>
+      <c r="C7" s="16">
         <f t="shared" si="3"/>
         <v>0.65192533317427737</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <f t="shared" si="0"/>
         <v>0.77693435791362231</v>
       </c>
@@ -2312,26 +2318,26 @@
         <f t="shared" si="4"/>
         <v>0.4163578675498959</v>
       </c>
-      <c r="G7" s="50"/>
-      <c r="H7" s="21">
+      <c r="G7" s="49"/>
+      <c r="H7" s="20">
         <f t="shared" si="2"/>
         <v>0.10408946688747397</v>
       </c>
-      <c r="J7" s="44"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="46"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="45"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <v>45</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="17">
+      <c r="B8" s="49"/>
+      <c r="C8" s="16">
         <f t="shared" si="3"/>
         <v>0.64485281374238579</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <f t="shared" si="0"/>
         <v>0.64485281374238579</v>
       </c>
@@ -2343,26 +2349,26 @@
         <f t="shared" si="4"/>
         <v>0.34557558135841893</v>
       </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="21">
+      <c r="G8" s="49"/>
+      <c r="H8" s="20">
         <f t="shared" si="2"/>
         <v>8.6393895339604732E-2</v>
       </c>
-      <c r="J8" s="44"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="46"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="45"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+      <c r="A9" s="19">
         <v>50</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="17">
+      <c r="B9" s="49"/>
+      <c r="C9" s="16">
         <f t="shared" si="3"/>
         <v>0.63713451316238479</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <f t="shared" si="0"/>
         <v>0.53461933500487291</v>
       </c>
@@ -2374,26 +2380,26 @@
         <f t="shared" si="4"/>
         <v>0.2865016381452391</v>
       </c>
-      <c r="G9" s="50"/>
-      <c r="H9" s="21">
+      <c r="G9" s="49"/>
+      <c r="H9" s="20">
         <f t="shared" si="2"/>
         <v>7.1625409536309775E-2</v>
       </c>
-      <c r="J9" s="44"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="46"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="45"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+      <c r="A10" s="19">
         <v>55</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="17">
+      <c r="B10" s="49"/>
+      <c r="C10" s="16">
         <f t="shared" si="3"/>
         <v>0.62882917236212554</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="17">
         <f t="shared" si="0"/>
         <v>0.44031092673413325</v>
       </c>
@@ -2405,46 +2411,46 @@
         <f t="shared" si="4"/>
         <v>0.23596191447402048</v>
       </c>
-      <c r="G10" s="50"/>
-      <c r="H10" s="21">
+      <c r="G10" s="49"/>
+      <c r="H10" s="20">
         <f t="shared" si="2"/>
         <v>5.8990478618505121E-2</v>
       </c>
-      <c r="J10" s="44"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="46"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="45"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="21">
         <v>60</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="23">
+      <c r="B11" s="50"/>
+      <c r="C11" s="22">
         <f t="shared" si="3"/>
         <v>0.62000000000000011</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="23">
         <f t="shared" si="0"/>
         <v>0.35795716689756818</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="24">
         <f t="shared" si="1"/>
         <v>9.5914333795136003E-2</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="24">
         <f t="shared" si="4"/>
         <v>0.19182866759027201</v>
       </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="26">
+      <c r="G11" s="50"/>
+      <c r="H11" s="25">
         <f t="shared" si="2"/>
         <v>4.7957166897568002E-2</v>
       </c>
-      <c r="J11" s="47"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="49"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="48"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2457,7 +2463,7 @@
       <c r="C14" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="26" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="14" t="s">
@@ -2492,13 +2498,13 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
+      <c r="A15" s="19">
         <f>A2</f>
-        <v>21.3</v>
+        <v>21.7</v>
       </c>
       <c r="B15" s="5">
         <f>D2</f>
-        <v>1.7230854575774166</v>
+        <v>1.6873947047364422</v>
       </c>
       <c r="C15" s="8">
         <f>$G$2</f>
@@ -2506,11 +2512,11 @@
       </c>
       <c r="D15" s="4">
         <f>-TRUNC($C15/2)*$H2</f>
-        <v>-0.46169935684768032</v>
+        <v>-0.45213604844668243</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ref="E15:F19" si="5">D15+$H2</f>
-        <v>-0.23084967842384016</v>
+        <v>-0.22606802422334121</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="5"/>
@@ -2518,27 +2524,27 @@
       </c>
       <c r="G15" s="5">
         <f t="shared" ref="G15:H15" si="6">F15+$H2</f>
-        <v>0.23084967842384016</v>
+        <v>0.22606802422334121</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="6"/>
-        <v>0.46169935684768032</v>
+        <v>0.45213604844668243</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="21"/>
+      <c r="N15" s="20"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
+      <c r="A16" s="19">
         <f t="shared" ref="A16:A19" si="7">A3</f>
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="B16" s="5">
         <f t="shared" ref="B16:B19" si="8">D3</f>
-        <v>1.5040033964861734</v>
+        <v>1.4967756431754404</v>
       </c>
       <c r="C16" s="8">
         <f t="shared" ref="C16:C19" si="9">$G$2</f>
@@ -2546,11 +2552,11 @@
       </c>
       <c r="D16" s="4">
         <f>-TRUNC($C16/2)*$H3</f>
-        <v>-0.40299649550213579</v>
+        <v>-0.40105982483943353</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="5"/>
-        <v>-0.20149824775106789</v>
+        <v>-0.20052991241971677</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="5"/>
@@ -2558,27 +2564,27 @@
       </c>
       <c r="G16" s="5">
         <f t="shared" ref="G16:H16" si="10">F16+$H3</f>
-        <v>0.20149824775106789</v>
+        <v>0.20052991241971677</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="10"/>
-        <v>0.40299649550213579</v>
+        <v>0.40105982483943353</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="21"/>
+      <c r="N16" s="20"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+      <c r="A17" s="19">
         <f t="shared" si="7"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="5">
         <f t="shared" si="8"/>
-        <v>1.3089057348643709</v>
+        <v>1.2524767692423808</v>
       </c>
       <c r="C17" s="8">
         <f t="shared" si="9"/>
@@ -2586,11 +2592,11 @@
       </c>
       <c r="D17" s="4">
         <f>-TRUNC($C17/2)*$H4</f>
-        <v>-0.35072023462537338</v>
+        <v>-0.33560013885723755</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="5"/>
-        <v>-0.17536011731268669</v>
+        <v>-0.16780006942861878</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="5"/>
@@ -2598,27 +2604,27 @@
       </c>
       <c r="G17" s="5">
         <f t="shared" ref="G17:H17" si="11">F17+$H4</f>
-        <v>0.17536011731268669</v>
+        <v>0.16780006942861878</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" si="11"/>
-        <v>0.35072023462537338</v>
+        <v>0.33560013885723755</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="21"/>
+      <c r="N17" s="20"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
+      <c r="A18" s="19">
         <f t="shared" si="7"/>
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="B18" s="5">
         <f t="shared" si="8"/>
-        <v>1.1031844242963265</v>
+        <v>1.1123189754227987</v>
       </c>
       <c r="C18" s="8">
         <f t="shared" si="9"/>
@@ -2626,11 +2632,11 @@
       </c>
       <c r="D18" s="4">
         <f>-TRUNC($C18/2)*$H5</f>
-        <v>-0.2955973755927937</v>
+        <v>-0.29804497119035273</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="5"/>
-        <v>-0.14779868779639685</v>
+        <v>-0.14902248559517636</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="5"/>
@@ -2638,27 +2644,27 @@
       </c>
       <c r="G18" s="5">
         <f t="shared" ref="G18:H18" si="12">F18+$H5</f>
-        <v>0.14779868779639685</v>
+        <v>0.14902248559517636</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" si="12"/>
-        <v>0.2955973755927937</v>
+        <v>0.29804497119035273</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="21"/>
+      <c r="N18" s="20"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
+      <c r="A19" s="19">
         <f t="shared" si="7"/>
-        <v>35</v>
+        <v>35.6</v>
       </c>
       <c r="B19" s="5">
         <f t="shared" si="8"/>
-        <v>0.94014732688799052</v>
+        <v>0.9184869783710784</v>
       </c>
       <c r="C19" s="8">
         <f t="shared" si="9"/>
@@ -2666,11 +2672,11 @@
       </c>
       <c r="D19" s="6">
         <f>-TRUNC($C19/2)*$H6</f>
-        <v>-0.2519117170059158</v>
+        <v>-0.24610784411303252</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" si="5"/>
-        <v>-0.1259558585029579</v>
+        <v>-0.12305392205651626</v>
       </c>
       <c r="F19" s="7">
         <f t="shared" si="5"/>
@@ -2678,21 +2684,21 @@
       </c>
       <c r="G19" s="7">
         <f t="shared" ref="G19:H19" si="13">F19+$H6</f>
-        <v>0.1259558585029579</v>
+        <v>0.12305392205651626</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="13"/>
-        <v>0.2519117170059158</v>
+        <v>0.24610784411303252</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="28"/>
+      <c r="N19" s="27"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -2705,7 +2711,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
-      <c r="N20" s="29"/>
+      <c r="N20" s="28"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
@@ -2743,179 +2749,179 @@
       <c r="M21" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N21" s="30" t="s">
+      <c r="N21" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="20">
+      <c r="A22" s="19">
         <f>A2</f>
-        <v>21.3</v>
+        <v>21.7</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="4">
         <f>$B$15</f>
-        <v>1.7230854575774166</v>
+        <v>1.6873947047364422</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ref="E22:H22" si="14">$B$15</f>
-        <v>1.7230854575774166</v>
+        <v>1.6873947047364422</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="14"/>
-        <v>1.7230854575774166</v>
+        <v>1.6873947047364422</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="14"/>
-        <v>1.7230854575774166</v>
+        <v>1.6873947047364422</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" si="14"/>
-        <v>1.7230854575774166</v>
+        <v>1.6873947047364422</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="21"/>
+      <c r="N22" s="20"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
+      <c r="A23" s="19">
         <f>A3</f>
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="4">
         <f>$B$16</f>
-        <v>1.5040033964861734</v>
+        <v>1.4967756431754404</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ref="E23:H23" si="15">$B$16</f>
-        <v>1.5040033964861734</v>
+        <v>1.4967756431754404</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="15"/>
-        <v>1.5040033964861734</v>
+        <v>1.4967756431754404</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="15"/>
-        <v>1.5040033964861734</v>
+        <v>1.4967756431754404</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" si="15"/>
-        <v>1.5040033964861734</v>
+        <v>1.4967756431754404</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="21"/>
+      <c r="N23" s="20"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
+      <c r="A24" s="19">
         <f t="shared" ref="A24:A26" si="16">A4</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="4">
         <f>$B$17</f>
-        <v>1.3089057348643709</v>
+        <v>1.2524767692423808</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ref="E24:H24" si="17">$B$17</f>
-        <v>1.3089057348643709</v>
+        <v>1.2524767692423808</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="17"/>
-        <v>1.3089057348643709</v>
+        <v>1.2524767692423808</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="17"/>
-        <v>1.3089057348643709</v>
+        <v>1.2524767692423808</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" si="17"/>
-        <v>1.3089057348643709</v>
+        <v>1.2524767692423808</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
-      <c r="N24" s="21"/>
+      <c r="N24" s="20"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
+      <c r="A25" s="19">
         <f t="shared" si="16"/>
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="4">
         <f>$B$18</f>
-        <v>1.1031844242963265</v>
+        <v>1.1123189754227987</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ref="E25:H25" si="18">$B$18</f>
-        <v>1.1031844242963265</v>
+        <v>1.1123189754227987</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="18"/>
-        <v>1.1031844242963265</v>
+        <v>1.1123189754227987</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="18"/>
-        <v>1.1031844242963265</v>
+        <v>1.1123189754227987</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" si="18"/>
-        <v>1.1031844242963265</v>
+        <v>1.1123189754227987</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
-      <c r="N25" s="21"/>
+      <c r="N25" s="20"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22">
+      <c r="A26" s="21">
         <f t="shared" si="16"/>
-        <v>35</v>
-      </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32">
+        <v>35.6</v>
+      </c>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31">
         <f>$B$19</f>
-        <v>0.94014732688799052</v>
-      </c>
-      <c r="E26" s="25">
+        <v>0.9184869783710784</v>
+      </c>
+      <c r="E26" s="24">
         <f t="shared" ref="E26:H26" si="19">$B$19</f>
-        <v>0.94014732688799052</v>
-      </c>
-      <c r="F26" s="25">
+        <v>0.9184869783710784</v>
+      </c>
+      <c r="F26" s="24">
         <f t="shared" si="19"/>
-        <v>0.94014732688799052</v>
-      </c>
-      <c r="G26" s="25">
+        <v>0.9184869783710784</v>
+      </c>
+      <c r="G26" s="24">
         <f t="shared" si="19"/>
-        <v>0.94014732688799052</v>
-      </c>
-      <c r="H26" s="25">
+        <v>0.9184869783710784</v>
+      </c>
+      <c r="H26" s="24">
         <f t="shared" si="19"/>
-        <v>0.94014732688799052</v>
-      </c>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="26"/>
+        <v>0.9184869783710784</v>
+      </c>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2942,71 +2948,71 @@
   <cols>
     <col min="3" max="3" width="11.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="9.140625" style="8"/>
-    <col min="7" max="7" width="9.140625" style="37"/>
+    <col min="7" max="7" width="9.140625" style="36"/>
     <col min="8" max="8" width="9.140625" style="9"/>
     <col min="9" max="11" width="9.140625" style="8"/>
-    <col min="12" max="12" width="9.140625" style="37"/>
+    <col min="12" max="12" width="9.140625" style="36"/>
     <col min="13" max="13" width="9.140625" style="9"/>
     <col min="14" max="16" width="9.140625" style="8"/>
-    <col min="17" max="17" width="9.140625" style="37" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="36" customWidth="1"/>
     <col min="18" max="18" width="9.140625" style="9"/>
     <col min="19" max="21" width="9.140625" style="8"/>
-    <col min="22" max="22" width="9.140625" style="37"/>
+    <col min="22" max="22" width="9.140625" style="36"/>
     <col min="23" max="23" width="9.140625" style="9"/>
     <col min="24" max="26" width="9.140625" style="8"/>
-    <col min="27" max="27" width="9.140625" style="37"/>
+    <col min="27" max="27" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C1" s="52">
+      <c r="C1" s="54">
         <f>grid!$A$15</f>
-        <v>21.3</v>
-      </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="52">
+        <v>21.7</v>
+      </c>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="54">
         <f>grid!$A$16</f>
-        <v>24</v>
-      </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="52">
+        <v>24.1</v>
+      </c>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="54">
         <f>grid!$A$17</f>
-        <v>27</v>
-      </c>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="52">
+        <v>28</v>
+      </c>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="54">
         <f>grid!$A$18</f>
-        <v>31</v>
-      </c>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="52">
+        <v>30.8</v>
+      </c>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="54">
         <f>grid!$A$19</f>
-        <v>35</v>
-      </c>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="54"/>
+        <v>35.6</v>
+      </c>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="56"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C2" s="1">
         <f>grid!D15</f>
-        <v>-0.46169935684768032</v>
+        <v>-0.45213604844668243</v>
       </c>
       <c r="D2" s="2">
         <f>grid!E15</f>
-        <v>-0.23084967842384016</v>
+        <v>-0.22606802422334121</v>
       </c>
       <c r="E2" s="2">
         <f>grid!F15</f>
@@ -3014,19 +3020,19 @@
       </c>
       <c r="F2" s="2">
         <f>grid!G15</f>
-        <v>0.23084967842384016</v>
+        <v>0.22606802422334121</v>
       </c>
       <c r="G2" s="3">
         <f>grid!H15</f>
-        <v>0.46169935684768032</v>
+        <v>0.45213604844668243</v>
       </c>
       <c r="H2" s="1">
         <f>grid!D16</f>
-        <v>-0.40299649550213579</v>
+        <v>-0.40105982483943353</v>
       </c>
       <c r="I2" s="2">
         <f>grid!E16</f>
-        <v>-0.20149824775106789</v>
+        <v>-0.20052991241971677</v>
       </c>
       <c r="J2" s="2">
         <f>grid!F16</f>
@@ -3034,19 +3040,19 @@
       </c>
       <c r="K2" s="2">
         <f>grid!G16</f>
-        <v>0.20149824775106789</v>
+        <v>0.20052991241971677</v>
       </c>
       <c r="L2" s="3">
         <f>grid!H16</f>
-        <v>0.40299649550213579</v>
+        <v>0.40105982483943353</v>
       </c>
       <c r="M2" s="1">
         <f>grid!D17</f>
-        <v>-0.35072023462537338</v>
+        <v>-0.33560013885723755</v>
       </c>
       <c r="N2" s="2">
         <f>grid!E17</f>
-        <v>-0.17536011731268669</v>
+        <v>-0.16780006942861878</v>
       </c>
       <c r="O2" s="2">
         <f>grid!F17</f>
@@ -3054,19 +3060,19 @@
       </c>
       <c r="P2" s="2">
         <f>grid!G17</f>
-        <v>0.17536011731268669</v>
+        <v>0.16780006942861878</v>
       </c>
       <c r="Q2" s="3">
         <f>grid!H17</f>
-        <v>0.35072023462537338</v>
+        <v>0.33560013885723755</v>
       </c>
       <c r="R2" s="1">
         <f>grid!D18</f>
-        <v>-0.2955973755927937</v>
+        <v>-0.29804497119035273</v>
       </c>
       <c r="S2" s="2">
         <f>grid!E18</f>
-        <v>-0.14779868779639685</v>
+        <v>-0.14902248559517636</v>
       </c>
       <c r="T2" s="2">
         <f>grid!F18</f>
@@ -3074,19 +3080,19 @@
       </c>
       <c r="U2" s="2">
         <f>grid!G18</f>
-        <v>0.14779868779639685</v>
+        <v>0.14902248559517636</v>
       </c>
       <c r="V2" s="3">
         <f>grid!H18</f>
-        <v>0.2955973755927937</v>
+        <v>0.29804497119035273</v>
       </c>
       <c r="W2" s="1">
         <f>grid!D19</f>
-        <v>-0.2519117170059158</v>
+        <v>-0.24610784411303252</v>
       </c>
       <c r="X2" s="2">
         <f>grid!E19</f>
-        <v>-0.1259558585029579</v>
+        <v>-0.12305392205651626</v>
       </c>
       <c r="Y2" s="2">
         <f>grid!F19</f>
@@ -3094,21 +3100,21 @@
       </c>
       <c r="Z2" s="2">
         <f>grid!G19</f>
-        <v>0.1259558585029579</v>
+        <v>0.12305392205651626</v>
       </c>
       <c r="AA2" s="3">
         <f>grid!H19</f>
-        <v>0.2519117170059158</v>
+        <v>0.24610784411303252</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55">
+      <c r="A3" s="51">
         <f t="shared" ref="A3" si="0">$C$1</f>
-        <v>21.3</v>
-      </c>
-      <c r="B3" s="34">
+        <v>21.7</v>
+      </c>
+      <c r="B3" s="33">
         <f>grid!$D$22</f>
-        <v>1.7230854575774166</v>
+        <v>1.6873947047364422</v>
       </c>
       <c r="C3" s="10"/>
       <c r="G3" s="12"/>
@@ -3122,81 +3128,81 @@
       <c r="AA3" s="12"/>
     </row>
     <row r="4" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="35">
+      <c r="A4" s="52"/>
+      <c r="B4" s="34">
         <f>$B$3</f>
-        <v>1.7230854575774166</v>
+        <v>1.6873947047364422</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="G4" s="37"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="9"/>
-      <c r="L4" s="37"/>
+      <c r="L4" s="36"/>
       <c r="M4" s="9"/>
-      <c r="Q4" s="37"/>
+      <c r="Q4" s="36"/>
       <c r="R4" s="9"/>
-      <c r="V4" s="37"/>
+      <c r="V4" s="36"/>
       <c r="W4" s="9"/>
-      <c r="AA4" s="37"/>
+      <c r="AA4" s="36"/>
     </row>
     <row r="5" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="35">
+      <c r="A5" s="52"/>
+      <c r="B5" s="34">
         <f t="shared" ref="B5:B7" si="1">$B$3</f>
-        <v>1.7230854575774166</v>
+        <v>1.6873947047364422</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="G5" s="37"/>
+      <c r="G5" s="36"/>
       <c r="H5" s="9"/>
-      <c r="L5" s="37"/>
+      <c r="L5" s="36"/>
       <c r="M5" s="9"/>
-      <c r="Q5" s="37"/>
+      <c r="Q5" s="36"/>
       <c r="R5" s="9"/>
-      <c r="V5" s="37"/>
+      <c r="V5" s="36"/>
       <c r="W5" s="9"/>
-      <c r="AA5" s="37"/>
+      <c r="AA5" s="36"/>
     </row>
     <row r="6" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
-      <c r="B6" s="35">
+      <c r="A6" s="52"/>
+      <c r="B6" s="34">
         <f t="shared" si="1"/>
-        <v>1.7230854575774166</v>
+        <v>1.6873947047364422</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="G6" s="37"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="9"/>
-      <c r="L6" s="37"/>
+      <c r="L6" s="36"/>
       <c r="M6" s="9"/>
-      <c r="Q6" s="37"/>
+      <c r="Q6" s="36"/>
       <c r="R6" s="9"/>
-      <c r="V6" s="37"/>
+      <c r="V6" s="36"/>
       <c r="W6" s="9"/>
-      <c r="AA6" s="37"/>
-    </row>
-    <row r="7" spans="1:27" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="36">
+      <c r="AA6" s="36"/>
+    </row>
+    <row r="7" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="53"/>
+      <c r="B7" s="35">
         <f t="shared" si="1"/>
-        <v>1.7230854575774166</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="38"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="38"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="38"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="38"/>
-      <c r="AA7" s="39"/>
+        <v>1.6873947047364422</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="37"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="37"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="37"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="37"/>
+      <c r="AA7" s="38"/>
     </row>
     <row r="8" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="55">
+      <c r="A8" s="51">
         <f t="shared" ref="A8" si="2">$H$1</f>
-        <v>24</v>
-      </c>
-      <c r="B8" s="34">
+        <v>24.1</v>
+      </c>
+      <c r="B8" s="33">
         <f>grid!$D$23</f>
-        <v>1.5040033964861734</v>
+        <v>1.4967756431754404</v>
       </c>
       <c r="C8" s="10"/>
       <c r="G8" s="12"/>
@@ -3210,81 +3216,81 @@
       <c r="AA8" s="12"/>
     </row>
     <row r="9" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
-      <c r="B9" s="35">
+      <c r="A9" s="52"/>
+      <c r="B9" s="34">
         <f>B8</f>
-        <v>1.5040033964861734</v>
+        <v>1.4967756431754404</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="G9" s="37"/>
+      <c r="G9" s="36"/>
       <c r="H9" s="9"/>
-      <c r="L9" s="37"/>
+      <c r="L9" s="36"/>
       <c r="M9" s="9"/>
-      <c r="Q9" s="37"/>
+      <c r="Q9" s="36"/>
       <c r="R9" s="9"/>
-      <c r="V9" s="37"/>
+      <c r="V9" s="36"/>
       <c r="W9" s="9"/>
-      <c r="AA9" s="37"/>
+      <c r="AA9" s="36"/>
     </row>
     <row r="10" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
-      <c r="B10" s="35">
+      <c r="A10" s="52"/>
+      <c r="B10" s="34">
         <f>B8</f>
-        <v>1.5040033964861734</v>
+        <v>1.4967756431754404</v>
       </c>
       <c r="C10" s="9"/>
-      <c r="G10" s="37"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="9"/>
-      <c r="L10" s="37"/>
+      <c r="L10" s="36"/>
       <c r="M10" s="9"/>
-      <c r="Q10" s="37"/>
+      <c r="Q10" s="36"/>
       <c r="R10" s="9"/>
-      <c r="V10" s="37"/>
+      <c r="V10" s="36"/>
       <c r="W10" s="9"/>
-      <c r="AA10" s="37"/>
+      <c r="AA10" s="36"/>
     </row>
     <row r="11" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
-      <c r="B11" s="35">
+      <c r="A11" s="52"/>
+      <c r="B11" s="34">
         <f>B8</f>
-        <v>1.5040033964861734</v>
+        <v>1.4967756431754404</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="G11" s="37"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="9"/>
-      <c r="L11" s="37"/>
+      <c r="L11" s="36"/>
       <c r="M11" s="9"/>
-      <c r="Q11" s="37"/>
+      <c r="Q11" s="36"/>
       <c r="R11" s="9"/>
-      <c r="V11" s="37"/>
+      <c r="V11" s="36"/>
       <c r="W11" s="9"/>
-      <c r="AA11" s="37"/>
-    </row>
-    <row r="12" spans="1:27" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
-      <c r="B12" s="36">
+      <c r="AA11" s="36"/>
+    </row>
+    <row r="12" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="53"/>
+      <c r="B12" s="35">
         <f>B8</f>
-        <v>1.5040033964861734</v>
-      </c>
-      <c r="C12" s="38"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="38"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="38"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="38"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="38"/>
-      <c r="AA12" s="39"/>
+        <v>1.4967756431754404</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="37"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="37"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="37"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="37"/>
+      <c r="AA12" s="38"/>
     </row>
     <row r="13" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55">
+      <c r="A13" s="51">
         <f t="shared" ref="A13" si="3">$M$1</f>
-        <v>27</v>
-      </c>
-      <c r="B13" s="34">
+        <v>28</v>
+      </c>
+      <c r="B13" s="33">
         <f>grid!$D$24</f>
-        <v>1.3089057348643709</v>
+        <v>1.2524767692423808</v>
       </c>
       <c r="C13" s="10"/>
       <c r="G13" s="12"/>
@@ -3298,81 +3304,81 @@
       <c r="AA13" s="12"/>
     </row>
     <row r="14" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
-      <c r="B14" s="35">
+      <c r="A14" s="52"/>
+      <c r="B14" s="34">
         <f>B13</f>
-        <v>1.3089057348643709</v>
+        <v>1.2524767692423808</v>
       </c>
       <c r="C14" s="9"/>
-      <c r="G14" s="37"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="9"/>
-      <c r="L14" s="37"/>
+      <c r="L14" s="36"/>
       <c r="M14" s="9"/>
-      <c r="Q14" s="37"/>
+      <c r="Q14" s="36"/>
       <c r="R14" s="9"/>
-      <c r="V14" s="37"/>
+      <c r="V14" s="36"/>
       <c r="W14" s="9"/>
-      <c r="AA14" s="37"/>
+      <c r="AA14" s="36"/>
     </row>
     <row r="15" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
-      <c r="B15" s="35">
+      <c r="A15" s="52"/>
+      <c r="B15" s="34">
         <f>B13</f>
-        <v>1.3089057348643709</v>
+        <v>1.2524767692423808</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="G15" s="37"/>
+      <c r="G15" s="36"/>
       <c r="H15" s="9"/>
-      <c r="L15" s="37"/>
+      <c r="L15" s="36"/>
       <c r="M15" s="9"/>
-      <c r="Q15" s="37"/>
+      <c r="Q15" s="36"/>
       <c r="R15" s="9"/>
-      <c r="V15" s="37"/>
+      <c r="V15" s="36"/>
       <c r="W15" s="9"/>
-      <c r="AA15" s="37"/>
+      <c r="AA15" s="36"/>
     </row>
     <row r="16" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
-      <c r="B16" s="35">
+      <c r="A16" s="52"/>
+      <c r="B16" s="34">
         <f>B13</f>
-        <v>1.3089057348643709</v>
+        <v>1.2524767692423808</v>
       </c>
       <c r="C16" s="9"/>
-      <c r="G16" s="37"/>
+      <c r="G16" s="36"/>
       <c r="H16" s="9"/>
-      <c r="L16" s="37"/>
+      <c r="L16" s="36"/>
       <c r="M16" s="9"/>
-      <c r="Q16" s="37"/>
+      <c r="Q16" s="36"/>
       <c r="R16" s="9"/>
-      <c r="V16" s="37"/>
+      <c r="V16" s="36"/>
       <c r="W16" s="9"/>
-      <c r="AA16" s="37"/>
-    </row>
-    <row r="17" spans="1:27" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
-      <c r="B17" s="36">
+      <c r="AA16" s="36"/>
+    </row>
+    <row r="17" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="53"/>
+      <c r="B17" s="35">
         <f>B13</f>
-        <v>1.3089057348643709</v>
-      </c>
-      <c r="C17" s="38"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="38"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="38"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="38"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="38"/>
-      <c r="AA17" s="39"/>
+        <v>1.2524767692423808</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="37"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="37"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="37"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="37"/>
+      <c r="AA17" s="38"/>
     </row>
     <row r="18" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="55">
+      <c r="A18" s="51">
         <f t="shared" ref="A18" si="4">$R$1</f>
-        <v>31</v>
-      </c>
-      <c r="B18" s="34">
+        <v>30.8</v>
+      </c>
+      <c r="B18" s="33">
         <f>grid!$D$25</f>
-        <v>1.1031844242963265</v>
+        <v>1.1123189754227987</v>
       </c>
       <c r="C18" s="10"/>
       <c r="G18" s="12"/>
@@ -3386,81 +3392,81 @@
       <c r="AA18" s="12"/>
     </row>
     <row r="19" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
-      <c r="B19" s="35">
+      <c r="A19" s="52"/>
+      <c r="B19" s="34">
         <f>$B$18</f>
-        <v>1.1031844242963265</v>
+        <v>1.1123189754227987</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="G19" s="37"/>
+      <c r="G19" s="36"/>
       <c r="H19" s="9"/>
-      <c r="L19" s="37"/>
+      <c r="L19" s="36"/>
       <c r="M19" s="9"/>
-      <c r="Q19" s="37"/>
+      <c r="Q19" s="36"/>
       <c r="R19" s="9"/>
-      <c r="V19" s="37"/>
+      <c r="V19" s="36"/>
       <c r="W19" s="9"/>
-      <c r="AA19" s="37"/>
+      <c r="AA19" s="36"/>
     </row>
     <row r="20" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
-      <c r="B20" s="35">
+      <c r="A20" s="52"/>
+      <c r="B20" s="34">
         <f t="shared" ref="B20:B22" si="5">$B$18</f>
-        <v>1.1031844242963265</v>
+        <v>1.1123189754227987</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="G20" s="37"/>
+      <c r="G20" s="36"/>
       <c r="H20" s="9"/>
-      <c r="L20" s="37"/>
+      <c r="L20" s="36"/>
       <c r="M20" s="9"/>
-      <c r="Q20" s="37"/>
+      <c r="Q20" s="36"/>
       <c r="R20" s="9"/>
-      <c r="V20" s="37"/>
+      <c r="V20" s="36"/>
       <c r="W20" s="9"/>
-      <c r="AA20" s="37"/>
+      <c r="AA20" s="36"/>
     </row>
     <row r="21" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
-      <c r="B21" s="35">
+      <c r="A21" s="52"/>
+      <c r="B21" s="34">
         <f t="shared" si="5"/>
-        <v>1.1031844242963265</v>
+        <v>1.1123189754227987</v>
       </c>
       <c r="C21" s="9"/>
-      <c r="G21" s="37"/>
+      <c r="G21" s="36"/>
       <c r="H21" s="9"/>
-      <c r="L21" s="37"/>
+      <c r="L21" s="36"/>
       <c r="M21" s="9"/>
-      <c r="Q21" s="37"/>
+      <c r="Q21" s="36"/>
       <c r="R21" s="9"/>
-      <c r="V21" s="37"/>
+      <c r="V21" s="36"/>
       <c r="W21" s="9"/>
-      <c r="AA21" s="37"/>
-    </row>
-    <row r="22" spans="1:27" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="36">
+      <c r="AA21" s="36"/>
+    </row>
+    <row r="22" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="53"/>
+      <c r="B22" s="35">
         <f t="shared" si="5"/>
-        <v>1.1031844242963265</v>
-      </c>
-      <c r="C22" s="38"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="38"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="38"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="38"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="38"/>
-      <c r="AA22" s="39"/>
+        <v>1.1123189754227987</v>
+      </c>
+      <c r="C22" s="37"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="37"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="37"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="37"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="37"/>
+      <c r="AA22" s="38"/>
     </row>
     <row r="23" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="55">
+      <c r="A23" s="51">
         <f t="shared" ref="A23" si="6">$W$1</f>
-        <v>35</v>
-      </c>
-      <c r="B23" s="34">
+        <v>35.6</v>
+      </c>
+      <c r="B23" s="33">
         <f>grid!$D$26</f>
-        <v>0.94014732688799052</v>
+        <v>0.9184869783710784</v>
       </c>
       <c r="C23" s="10"/>
       <c r="G23" s="12"/>
@@ -3474,85 +3480,85 @@
       <c r="AA23" s="12"/>
     </row>
     <row r="24" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
-      <c r="B24" s="35">
+      <c r="A24" s="52"/>
+      <c r="B24" s="34">
         <f>$B$23</f>
-        <v>0.94014732688799052</v>
+        <v>0.9184869783710784</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="G24" s="37"/>
+      <c r="G24" s="36"/>
       <c r="H24" s="9"/>
-      <c r="L24" s="37"/>
+      <c r="L24" s="36"/>
       <c r="M24" s="9"/>
-      <c r="Q24" s="37"/>
+      <c r="Q24" s="36"/>
       <c r="R24" s="9"/>
-      <c r="V24" s="37"/>
+      <c r="V24" s="36"/>
       <c r="W24" s="9"/>
-      <c r="AA24" s="37"/>
+      <c r="AA24" s="36"/>
     </row>
     <row r="25" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
-      <c r="B25" s="35">
+      <c r="A25" s="52"/>
+      <c r="B25" s="34">
         <f t="shared" ref="B25:B27" si="7">$B$23</f>
-        <v>0.94014732688799052</v>
+        <v>0.9184869783710784</v>
       </c>
       <c r="C25" s="9"/>
-      <c r="G25" s="37"/>
+      <c r="G25" s="36"/>
       <c r="H25" s="9"/>
-      <c r="L25" s="37"/>
+      <c r="L25" s="36"/>
       <c r="M25" s="9"/>
-      <c r="Q25" s="37"/>
+      <c r="Q25" s="36"/>
       <c r="R25" s="9"/>
-      <c r="V25" s="37"/>
+      <c r="V25" s="36"/>
       <c r="W25" s="9"/>
-      <c r="AA25" s="37"/>
+      <c r="AA25" s="36"/>
     </row>
     <row r="26" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
-      <c r="B26" s="35">
+      <c r="A26" s="52"/>
+      <c r="B26" s="34">
         <f t="shared" si="7"/>
-        <v>0.94014732688799052</v>
+        <v>0.9184869783710784</v>
       </c>
       <c r="C26" s="9"/>
-      <c r="G26" s="37"/>
+      <c r="G26" s="36"/>
       <c r="H26" s="9"/>
-      <c r="L26" s="37"/>
+      <c r="L26" s="36"/>
       <c r="M26" s="9"/>
-      <c r="Q26" s="37"/>
+      <c r="Q26" s="36"/>
       <c r="R26" s="9"/>
-      <c r="V26" s="37"/>
+      <c r="V26" s="36"/>
       <c r="W26" s="9"/>
-      <c r="AA26" s="37"/>
-    </row>
-    <row r="27" spans="1:27" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
-      <c r="B27" s="36">
+      <c r="AA26" s="36"/>
+    </row>
+    <row r="27" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="53"/>
+      <c r="B27" s="35">
         <f t="shared" si="7"/>
-        <v>0.94014732688799052</v>
-      </c>
-      <c r="C27" s="38"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="38"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="38"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="38"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="38"/>
-      <c r="AA27" s="39"/>
+        <v>0.9184869783710784</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="37"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="37"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="37"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="37"/>
+      <c r="AA27" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="W1:AA1"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:A27"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="W1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/_hydro-radar-grid.xlsx
+++ b/_hydro-radar-grid.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giord\Desktop\hrc-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE06594-3E0F-4585-A1B0-CEC0C105478D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC4595F-0CFF-400D-8C67-CEF4AAD19300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{C60B9B42-610B-418E-B17A-28126607FE42}"/>
   </bookViews>
   <sheets>
     <sheet name="grid" sheetId="1" r:id="rId1"/>
-    <sheet name="5 scan points" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -166,7 +165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -195,30 +194,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -237,17 +216,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -382,58 +350,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -445,46 +408,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -531,7 +463,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>21,7</c:v>
+                  <c:v>21,6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -565,19 +497,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.45213604844668243</c:v>
+                  <c:v>-0.45449548096403553</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.22606802422334121</c:v>
+                  <c:v>-0.22724774048201776</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22606802422334121</c:v>
+                  <c:v>0.22724774048201776</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.45213604844668243</c:v>
+                  <c:v>0.45449548096403553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -589,19 +521,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.6873947047364422</c:v>
+                  <c:v>1.6962002267682341</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6873947047364422</c:v>
+                  <c:v>1.6962002267682341</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6873947047364422</c:v>
+                  <c:v>1.6962002267682341</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6873947047364422</c:v>
+                  <c:v>1.6962002267682341</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6873947047364422</c:v>
+                  <c:v>1.6962002267682341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -622,7 +554,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>24,1</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -656,19 +588,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.40105982483943353</c:v>
+                  <c:v>-0.40299649550213579</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.20052991241971677</c:v>
+                  <c:v>-0.20149824775106789</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20052991241971677</c:v>
+                  <c:v>0.20149824775106789</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.40105982483943353</c:v>
+                  <c:v>0.40299649550213579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -680,19 +612,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.4967756431754404</c:v>
+                  <c:v>1.5040033964861734</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4967756431754404</c:v>
+                  <c:v>1.5040033964861734</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4967756431754404</c:v>
+                  <c:v>1.5040033964861734</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4967756431754404</c:v>
+                  <c:v>1.5040033964861734</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4967756431754404</c:v>
+                  <c:v>1.5040033964861734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -713,7 +645,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>28,3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -747,19 +679,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.33560013885723755</c:v>
+                  <c:v>-0.3312547968862814</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.16780006942861878</c:v>
+                  <c:v>-0.1656273984431407</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16780006942861878</c:v>
+                  <c:v>0.1656273984431407</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33560013885723755</c:v>
+                  <c:v>0.3312547968862814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -771,19 +703,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.2524767692423808</c:v>
+                  <c:v>1.2362597322305109</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2524767692423808</c:v>
+                  <c:v>1.2362597322305109</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2524767692423808</c:v>
+                  <c:v>1.2362597322305109</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2524767692423808</c:v>
+                  <c:v>1.2362597322305109</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2524767692423808</c:v>
+                  <c:v>1.2362597322305109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -804,7 +736,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>30,8</c:v>
+                  <c:v>30,4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -838,19 +770,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.29804497119035273</c:v>
+                  <c:v>-0.30302673368697625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.14902248559517636</c:v>
+                  <c:v>-0.15151336684348812</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14902248559517636</c:v>
+                  <c:v>0.15151336684348812</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29804497119035273</c:v>
+                  <c:v>0.30302673368697625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -862,19 +794,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.1123189754227987</c:v>
+                  <c:v>1.1309111661714388</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1123189754227987</c:v>
+                  <c:v>1.1309111661714388</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1123189754227987</c:v>
+                  <c:v>1.1309111661714388</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1123189754227987</c:v>
+                  <c:v>1.1309111661714388</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1123189754227987</c:v>
+                  <c:v>1.1309111661714388</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -895,7 +827,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>35,6</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -929,19 +861,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.24610784411303252</c:v>
+                  <c:v>-0.2725839392444519</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.12305392205651626</c:v>
+                  <c:v>-0.13629196962222595</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12305392205651626</c:v>
+                  <c:v>0.13629196962222595</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.24610784411303252</c:v>
+                  <c:v>0.2725839392444519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -953,19 +885,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.9184869783710784</c:v>
+                  <c:v>1.0172971105875626</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9184869783710784</c:v>
+                  <c:v>1.0172971105875626</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9184869783710784</c:v>
+                  <c:v>1.0172971105875626</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9184869783710784</c:v>
+                  <c:v>1.0172971105875626</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9184869783710784</c:v>
+                  <c:v>1.0172971105875626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2094,7 +2026,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2111,817 +2043,817 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="57">
-        <v>21.7</v>
-      </c>
-      <c r="B2" s="49">
+      <c r="A2" s="28">
+        <v>21.6</v>
+      </c>
+      <c r="B2" s="38">
         <v>15</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="11">
         <f>0.56+0.12*COS(RADIANS(A2))</f>
-        <v>0.67149590858408681</v>
-      </c>
-      <c r="D2" s="17">
+        <v>0.67157317830659025</v>
+      </c>
+      <c r="D2" s="12">
         <f t="shared" ref="D2:D11" si="0">$C2*_xlfn.COT(RADIANS(A2))</f>
-        <v>1.6873947047364422</v>
-      </c>
-      <c r="E2" s="17">
+        <v>1.6962002267682341</v>
+      </c>
+      <c r="E2" s="12">
         <f t="shared" ref="E2:E11" si="1">D2*TAN(RADIANS($B$2))</f>
-        <v>0.45213604844668243</v>
-      </c>
-      <c r="F2" s="17">
+        <v>0.45449548096403553</v>
+      </c>
+      <c r="F2" s="12">
         <f>E2*2</f>
-        <v>0.90427209689336485</v>
-      </c>
-      <c r="G2" s="49">
+        <v>0.90899096192807105</v>
+      </c>
+      <c r="G2" s="38">
         <v>5</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="13">
         <f t="shared" ref="H2:H11" si="2">F2/($G$2-1)</f>
-        <v>0.22606802422334121</v>
-      </c>
-      <c r="J2" s="40" t="s">
+        <v>0.22724774048201776</v>
+      </c>
+      <c r="J2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="57">
-        <v>24.1</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="16">
+      <c r="A3" s="28">
+        <v>24</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="11">
         <f t="shared" ref="C3:C11" si="3">0.56+0.12*COS(RADIANS(A3))</f>
-        <v>0.66954010126796515</v>
-      </c>
-      <c r="D3" s="17">
+        <v>0.66962545491711212</v>
+      </c>
+      <c r="D3" s="12">
         <f t="shared" si="0"/>
-        <v>1.4967756431754404</v>
-      </c>
-      <c r="E3" s="17">
+        <v>1.5040033964861734</v>
+      </c>
+      <c r="E3" s="12">
         <f t="shared" si="1"/>
-        <v>0.40105982483943353</v>
-      </c>
-      <c r="F3" s="17">
+        <v>0.40299649550213579</v>
+      </c>
+      <c r="F3" s="12">
         <f t="shared" ref="F3:F11" si="4">E3*2</f>
-        <v>0.80211964967886706</v>
-      </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="18">
+        <v>0.80599299100427158</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="13">
         <f t="shared" si="2"/>
-        <v>0.20052991241971677</v>
-      </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="45"/>
+        <v>0.20149824775106789</v>
+      </c>
+      <c r="J3" s="32"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="34"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="57">
-        <v>28</v>
-      </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="16">
+      <c r="A4" s="28">
+        <v>28.3</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="11">
         <f t="shared" si="3"/>
-        <v>0.66595371114307134</v>
-      </c>
-      <c r="D4" s="17">
+        <v>0.66565728242109945</v>
+      </c>
+      <c r="D4" s="12">
         <f t="shared" si="0"/>
-        <v>1.2524767692423808</v>
-      </c>
-      <c r="E4" s="17">
+        <v>1.2362597322305109</v>
+      </c>
+      <c r="E4" s="12">
         <f t="shared" si="1"/>
-        <v>0.33560013885723755</v>
-      </c>
-      <c r="F4" s="17">
+        <v>0.3312547968862814</v>
+      </c>
+      <c r="F4" s="12">
         <f t="shared" si="4"/>
-        <v>0.6712002777144751</v>
-      </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="18">
+        <v>0.6625095937725628</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="H4" s="13">
         <f t="shared" si="2"/>
-        <v>0.16780006942861878</v>
-      </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="45"/>
+        <v>0.1656273984431407</v>
+      </c>
+      <c r="J4" s="32"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="34"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="57">
-        <v>30.8</v>
-      </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="16">
+      <c r="A5" s="28">
+        <v>30.4</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="11">
         <f t="shared" si="3"/>
-        <v>0.66307518763167983</v>
-      </c>
-      <c r="D5" s="17">
+        <v>0.66350164030487091</v>
+      </c>
+      <c r="D5" s="12">
         <f t="shared" si="0"/>
-        <v>1.1123189754227987</v>
-      </c>
-      <c r="E5" s="17">
+        <v>1.1309111661714388</v>
+      </c>
+      <c r="E5" s="12">
         <f t="shared" si="1"/>
-        <v>0.29804497119035273</v>
-      </c>
-      <c r="F5" s="17">
+        <v>0.30302673368697625</v>
+      </c>
+      <c r="F5" s="12">
         <f t="shared" si="4"/>
-        <v>0.59608994238070545</v>
-      </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="18">
+        <v>0.60605346737395249</v>
+      </c>
+      <c r="G5" s="38"/>
+      <c r="H5" s="13">
         <f t="shared" si="2"/>
-        <v>0.14902248559517636</v>
-      </c>
-      <c r="J5" s="43"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="45"/>
+        <v>0.15151336684348812</v>
+      </c>
+      <c r="J5" s="32"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="34"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="57">
-        <v>35.6</v>
-      </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="16">
+      <c r="A6" s="28">
+        <v>33</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="11">
         <f t="shared" si="3"/>
-        <v>0.65757209132564332</v>
-      </c>
-      <c r="D6" s="17">
+        <v>0.6606404681534509</v>
+      </c>
+      <c r="D6" s="12">
         <f t="shared" si="0"/>
-        <v>0.9184869783710784</v>
-      </c>
-      <c r="E6" s="17">
+        <v>1.0172971105875626</v>
+      </c>
+      <c r="E6" s="12">
         <f t="shared" si="1"/>
-        <v>0.24610784411303252</v>
-      </c>
-      <c r="F6" s="17">
+        <v>0.2725839392444519</v>
+      </c>
+      <c r="F6" s="12">
         <f t="shared" si="4"/>
-        <v>0.49221568822606504</v>
-      </c>
-      <c r="G6" s="49"/>
-      <c r="H6" s="18">
+        <v>0.5451678784889038</v>
+      </c>
+      <c r="G6" s="38"/>
+      <c r="H6" s="13">
         <f t="shared" si="2"/>
-        <v>0.12305392205651626</v>
-      </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="45"/>
+        <v>0.13629196962222595</v>
+      </c>
+      <c r="J6" s="32"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="34"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="39">
+      <c r="A7" s="27">
         <v>40</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="16">
+      <c r="B7" s="38"/>
+      <c r="C7" s="11">
         <f t="shared" si="3"/>
         <v>0.65192533317427737</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="12">
         <f t="shared" si="0"/>
         <v>0.77693435791362231</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="2">
         <f t="shared" si="1"/>
         <v>0.20817893377494795</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="2">
         <f t="shared" si="4"/>
         <v>0.4163578675498959</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="20">
+      <c r="G7" s="38"/>
+      <c r="H7" s="15">
         <f t="shared" si="2"/>
         <v>0.10408946688747397</v>
       </c>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="45"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="34"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="14">
         <v>45</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="16">
+      <c r="B8" s="38"/>
+      <c r="C8" s="11">
         <f t="shared" si="3"/>
         <v>0.64485281374238579</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="12">
         <f t="shared" si="0"/>
         <v>0.64485281374238579</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="2">
         <f t="shared" si="1"/>
         <v>0.17278779067920946</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="2">
         <f t="shared" si="4"/>
         <v>0.34557558135841893</v>
       </c>
-      <c r="G8" s="49"/>
-      <c r="H8" s="20">
+      <c r="G8" s="38"/>
+      <c r="H8" s="15">
         <f t="shared" si="2"/>
         <v>8.6393895339604732E-2</v>
       </c>
-      <c r="J8" s="43"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="45"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="34"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+      <c r="A9" s="14">
         <v>50</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="16">
+      <c r="B9" s="38"/>
+      <c r="C9" s="11">
         <f t="shared" si="3"/>
         <v>0.63713451316238479</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="12">
         <f t="shared" si="0"/>
         <v>0.53461933500487291</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="2">
         <f t="shared" si="1"/>
         <v>0.14325081907261955</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="2">
         <f t="shared" si="4"/>
         <v>0.2865016381452391</v>
       </c>
-      <c r="G9" s="49"/>
-      <c r="H9" s="20">
+      <c r="G9" s="38"/>
+      <c r="H9" s="15">
         <f t="shared" si="2"/>
         <v>7.1625409536309775E-2</v>
       </c>
-      <c r="J9" s="43"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="45"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="34"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="14">
         <v>55</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="16">
+      <c r="B10" s="38"/>
+      <c r="C10" s="11">
         <f t="shared" si="3"/>
         <v>0.62882917236212554</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="12">
         <f t="shared" si="0"/>
         <v>0.44031092673413325</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="2">
         <f t="shared" si="1"/>
         <v>0.11798095723701024</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="2">
         <f t="shared" si="4"/>
         <v>0.23596191447402048</v>
       </c>
-      <c r="G10" s="49"/>
-      <c r="H10" s="20">
+      <c r="G10" s="38"/>
+      <c r="H10" s="15">
         <f t="shared" si="2"/>
         <v>5.8990478618505121E-2</v>
       </c>
-      <c r="J10" s="43"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="45"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="34"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="A11" s="16">
         <v>60</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="22">
+      <c r="B11" s="39"/>
+      <c r="C11" s="17">
         <f t="shared" si="3"/>
         <v>0.62000000000000011</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="18">
         <f t="shared" si="0"/>
         <v>0.35795716689756818</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="19">
         <f t="shared" si="1"/>
         <v>9.5914333795136003E-2</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="19">
         <f t="shared" si="4"/>
         <v>0.19182866759027201</v>
       </c>
-      <c r="G11" s="50"/>
-      <c r="H11" s="25">
+      <c r="G11" s="39"/>
+      <c r="H11" s="20">
         <f t="shared" si="2"/>
         <v>4.7957166897568002E-2</v>
       </c>
-      <c r="J11" s="46"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="48"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="37"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="L14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="14" t="s">
+      <c r="M14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="15" t="s">
+      <c r="N14" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="14">
         <f>A2</f>
-        <v>21.7</v>
-      </c>
-      <c r="B15" s="5">
+        <v>21.6</v>
+      </c>
+      <c r="B15" s="2">
         <f>D2</f>
-        <v>1.6873947047364422</v>
-      </c>
-      <c r="C15" s="8">
+        <v>1.6962002267682341</v>
+      </c>
+      <c r="C15" s="5">
         <f>$G$2</f>
         <v>5</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="1">
         <f>-TRUNC($C15/2)*$H2</f>
-        <v>-0.45213604844668243</v>
-      </c>
-      <c r="E15" s="5">
+        <v>-0.45449548096403553</v>
+      </c>
+      <c r="E15" s="2">
         <f t="shared" ref="E15:F19" si="5">D15+$H2</f>
-        <v>-0.22606802422334121</v>
-      </c>
-      <c r="F15" s="5">
+        <v>-0.22724774048201776</v>
+      </c>
+      <c r="F15" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="2">
         <f t="shared" ref="G15:H15" si="6">F15+$H2</f>
-        <v>0.22606802422334121</v>
-      </c>
-      <c r="H15" s="5">
+        <v>0.22724774048201776</v>
+      </c>
+      <c r="H15" s="2">
         <f t="shared" si="6"/>
-        <v>0.45213604844668243</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="20"/>
+        <v>0.45449548096403553</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="A16" s="14">
         <f t="shared" ref="A16:A19" si="7">A3</f>
-        <v>24.1</v>
-      </c>
-      <c r="B16" s="5">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2">
         <f t="shared" ref="B16:B19" si="8">D3</f>
-        <v>1.4967756431754404</v>
-      </c>
-      <c r="C16" s="8">
+        <v>1.5040033964861734</v>
+      </c>
+      <c r="C16" s="5">
         <f t="shared" ref="C16:C19" si="9">$G$2</f>
         <v>5</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="1">
         <f>-TRUNC($C16/2)*$H3</f>
-        <v>-0.40105982483943353</v>
-      </c>
-      <c r="E16" s="5">
+        <v>-0.40299649550213579</v>
+      </c>
+      <c r="E16" s="2">
         <f t="shared" si="5"/>
-        <v>-0.20052991241971677</v>
-      </c>
-      <c r="F16" s="5">
+        <v>-0.20149824775106789</v>
+      </c>
+      <c r="F16" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="2">
         <f t="shared" ref="G16:H16" si="10">F16+$H3</f>
-        <v>0.20052991241971677</v>
-      </c>
-      <c r="H16" s="5">
+        <v>0.20149824775106789</v>
+      </c>
+      <c r="H16" s="2">
         <f t="shared" si="10"/>
-        <v>0.40105982483943353</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="20"/>
+        <v>0.40299649550213579</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+      <c r="A17" s="14">
         <f t="shared" si="7"/>
-        <v>28</v>
-      </c>
-      <c r="B17" s="5">
+        <v>28.3</v>
+      </c>
+      <c r="B17" s="2">
         <f t="shared" si="8"/>
-        <v>1.2524767692423808</v>
-      </c>
-      <c r="C17" s="8">
+        <v>1.2362597322305109</v>
+      </c>
+      <c r="C17" s="5">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="1">
         <f>-TRUNC($C17/2)*$H4</f>
-        <v>-0.33560013885723755</v>
-      </c>
-      <c r="E17" s="5">
+        <v>-0.3312547968862814</v>
+      </c>
+      <c r="E17" s="2">
         <f t="shared" si="5"/>
-        <v>-0.16780006942861878</v>
-      </c>
-      <c r="F17" s="5">
+        <v>-0.1656273984431407</v>
+      </c>
+      <c r="F17" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="2">
         <f t="shared" ref="G17:H17" si="11">F17+$H4</f>
-        <v>0.16780006942861878</v>
-      </c>
-      <c r="H17" s="5">
+        <v>0.1656273984431407</v>
+      </c>
+      <c r="H17" s="2">
         <f t="shared" si="11"/>
-        <v>0.33560013885723755</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="20"/>
+        <v>0.3312547968862814</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="14">
         <f t="shared" si="7"/>
-        <v>30.8</v>
-      </c>
-      <c r="B18" s="5">
+        <v>30.4</v>
+      </c>
+      <c r="B18" s="2">
         <f t="shared" si="8"/>
-        <v>1.1123189754227987</v>
-      </c>
-      <c r="C18" s="8">
+        <v>1.1309111661714388</v>
+      </c>
+      <c r="C18" s="5">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="1">
         <f>-TRUNC($C18/2)*$H5</f>
-        <v>-0.29804497119035273</v>
-      </c>
-      <c r="E18" s="5">
+        <v>-0.30302673368697625</v>
+      </c>
+      <c r="E18" s="2">
         <f t="shared" si="5"/>
-        <v>-0.14902248559517636</v>
-      </c>
-      <c r="F18" s="5">
+        <v>-0.15151336684348812</v>
+      </c>
+      <c r="F18" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="2">
         <f t="shared" ref="G18:H18" si="12">F18+$H5</f>
-        <v>0.14902248559517636</v>
-      </c>
-      <c r="H18" s="5">
+        <v>0.15151336684348812</v>
+      </c>
+      <c r="H18" s="2">
         <f t="shared" si="12"/>
-        <v>0.29804497119035273</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="20"/>
+        <v>0.30302673368697625</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="15"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+      <c r="A19" s="14">
         <f t="shared" si="7"/>
-        <v>35.6</v>
-      </c>
-      <c r="B19" s="5">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2">
         <f t="shared" si="8"/>
-        <v>0.9184869783710784</v>
-      </c>
-      <c r="C19" s="8">
+        <v>1.0172971105875626</v>
+      </c>
+      <c r="C19" s="5">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="3">
         <f>-TRUNC($C19/2)*$H6</f>
-        <v>-0.24610784411303252</v>
-      </c>
-      <c r="E19" s="7">
+        <v>-0.2725839392444519</v>
+      </c>
+      <c r="E19" s="4">
         <f t="shared" si="5"/>
-        <v>-0.12305392205651626</v>
-      </c>
-      <c r="F19" s="7">
+        <v>-0.13629196962222595</v>
+      </c>
+      <c r="F19" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="4">
         <f t="shared" ref="G19:H19" si="13">F19+$H6</f>
-        <v>0.12305392205651626</v>
-      </c>
-      <c r="H19" s="7">
+        <v>0.13629196962222595</v>
+      </c>
+      <c r="H19" s="4">
         <f t="shared" si="13"/>
-        <v>0.24610784411303252</v>
-      </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="27"/>
+        <v>0.2725839392444519</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="22"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="28"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="23"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="10" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="L21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M21" s="11" t="s">
+      <c r="M21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N21" s="29" t="s">
+      <c r="N21" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="A22" s="14">
         <f>A2</f>
-        <v>21.7</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="4">
+        <v>21.6</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="1">
         <f>$B$15</f>
-        <v>1.6873947047364422</v>
-      </c>
-      <c r="E22" s="5">
+        <v>1.6962002267682341</v>
+      </c>
+      <c r="E22" s="2">
         <f t="shared" ref="E22:H22" si="14">$B$15</f>
-        <v>1.6873947047364422</v>
-      </c>
-      <c r="F22" s="5">
+        <v>1.6962002267682341</v>
+      </c>
+      <c r="F22" s="2">
         <f t="shared" si="14"/>
-        <v>1.6873947047364422</v>
-      </c>
-      <c r="G22" s="5">
+        <v>1.6962002267682341</v>
+      </c>
+      <c r="G22" s="2">
         <f t="shared" si="14"/>
-        <v>1.6873947047364422</v>
-      </c>
-      <c r="H22" s="5">
+        <v>1.6962002267682341</v>
+      </c>
+      <c r="H22" s="2">
         <f t="shared" si="14"/>
-        <v>1.6873947047364422</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="20"/>
+        <v>1.6962002267682341</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="15"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="A23" s="14">
         <f>A3</f>
-        <v>24.1</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="4">
+        <v>24</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="1">
         <f>$B$16</f>
-        <v>1.4967756431754404</v>
-      </c>
-      <c r="E23" s="5">
+        <v>1.5040033964861734</v>
+      </c>
+      <c r="E23" s="2">
         <f t="shared" ref="E23:H23" si="15">$B$16</f>
-        <v>1.4967756431754404</v>
-      </c>
-      <c r="F23" s="5">
+        <v>1.5040033964861734</v>
+      </c>
+      <c r="F23" s="2">
         <f t="shared" si="15"/>
-        <v>1.4967756431754404</v>
-      </c>
-      <c r="G23" s="5">
+        <v>1.5040033964861734</v>
+      </c>
+      <c r="G23" s="2">
         <f t="shared" si="15"/>
-        <v>1.4967756431754404</v>
-      </c>
-      <c r="H23" s="5">
+        <v>1.5040033964861734</v>
+      </c>
+      <c r="H23" s="2">
         <f t="shared" si="15"/>
-        <v>1.4967756431754404</v>
-      </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="20"/>
+        <v>1.5040033964861734</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="15"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
+      <c r="A24" s="14">
         <f t="shared" ref="A24:A26" si="16">A4</f>
-        <v>28</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="4">
+        <v>28.3</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="1">
         <f>$B$17</f>
-        <v>1.2524767692423808</v>
-      </c>
-      <c r="E24" s="5">
+        <v>1.2362597322305109</v>
+      </c>
+      <c r="E24" s="2">
         <f t="shared" ref="E24:H24" si="17">$B$17</f>
-        <v>1.2524767692423808</v>
-      </c>
-      <c r="F24" s="5">
+        <v>1.2362597322305109</v>
+      </c>
+      <c r="F24" s="2">
         <f t="shared" si="17"/>
-        <v>1.2524767692423808</v>
-      </c>
-      <c r="G24" s="5">
+        <v>1.2362597322305109</v>
+      </c>
+      <c r="G24" s="2">
         <f t="shared" si="17"/>
-        <v>1.2524767692423808</v>
-      </c>
-      <c r="H24" s="5">
+        <v>1.2362597322305109</v>
+      </c>
+      <c r="H24" s="2">
         <f t="shared" si="17"/>
-        <v>1.2524767692423808</v>
-      </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="20"/>
+        <v>1.2362597322305109</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="15"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
+      <c r="A25" s="14">
         <f t="shared" si="16"/>
-        <v>30.8</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="4">
+        <v>30.4</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="1">
         <f>$B$18</f>
-        <v>1.1123189754227987</v>
-      </c>
-      <c r="E25" s="5">
+        <v>1.1309111661714388</v>
+      </c>
+      <c r="E25" s="2">
         <f t="shared" ref="E25:H25" si="18">$B$18</f>
-        <v>1.1123189754227987</v>
-      </c>
-      <c r="F25" s="5">
+        <v>1.1309111661714388</v>
+      </c>
+      <c r="F25" s="2">
         <f t="shared" si="18"/>
-        <v>1.1123189754227987</v>
-      </c>
-      <c r="G25" s="5">
+        <v>1.1309111661714388</v>
+      </c>
+      <c r="G25" s="2">
         <f t="shared" si="18"/>
-        <v>1.1123189754227987</v>
-      </c>
-      <c r="H25" s="5">
+        <v>1.1309111661714388</v>
+      </c>
+      <c r="H25" s="2">
         <f t="shared" si="18"/>
-        <v>1.1123189754227987</v>
-      </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="20"/>
+        <v>1.1309111661714388</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="15"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21">
+      <c r="A26" s="16">
         <f t="shared" si="16"/>
-        <v>35.6</v>
-      </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31">
+        <v>33</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26">
         <f>$B$19</f>
-        <v>0.9184869783710784</v>
-      </c>
-      <c r="E26" s="24">
+        <v>1.0172971105875626</v>
+      </c>
+      <c r="E26" s="19">
         <f t="shared" ref="E26:H26" si="19">$B$19</f>
-        <v>0.9184869783710784</v>
-      </c>
-      <c r="F26" s="24">
+        <v>1.0172971105875626</v>
+      </c>
+      <c r="F26" s="19">
         <f t="shared" si="19"/>
-        <v>0.9184869783710784</v>
-      </c>
-      <c r="G26" s="24">
+        <v>1.0172971105875626</v>
+      </c>
+      <c r="G26" s="19">
         <f t="shared" si="19"/>
-        <v>0.9184869783710784</v>
-      </c>
-      <c r="H26" s="24">
+        <v>1.0172971105875626</v>
+      </c>
+      <c r="H26" s="19">
         <f t="shared" si="19"/>
-        <v>0.9184869783710784</v>
-      </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="25"/>
+        <v>1.0172971105875626</v>
+      </c>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2934,633 +2866,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0889EA53-B50F-40DC-AB28-46DC0B05D70C}">
-  <dimension ref="A1:AA27"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="11.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="8"/>
-    <col min="7" max="7" width="9.140625" style="36"/>
-    <col min="8" max="8" width="9.140625" style="9"/>
-    <col min="9" max="11" width="9.140625" style="8"/>
-    <col min="12" max="12" width="9.140625" style="36"/>
-    <col min="13" max="13" width="9.140625" style="9"/>
-    <col min="14" max="16" width="9.140625" style="8"/>
-    <col min="17" max="17" width="9.140625" style="36" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="9"/>
-    <col min="19" max="21" width="9.140625" style="8"/>
-    <col min="22" max="22" width="9.140625" style="36"/>
-    <col min="23" max="23" width="9.140625" style="9"/>
-    <col min="24" max="26" width="9.140625" style="8"/>
-    <col min="27" max="27" width="9.140625" style="36"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C1" s="54">
-        <f>grid!$A$15</f>
-        <v>21.7</v>
-      </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="54">
-        <f>grid!$A$16</f>
-        <v>24.1</v>
-      </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="54">
-        <f>grid!$A$17</f>
-        <v>28</v>
-      </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="54">
-        <f>grid!$A$18</f>
-        <v>30.8</v>
-      </c>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="54">
-        <f>grid!$A$19</f>
-        <v>35.6</v>
-      </c>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="56"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C2" s="1">
-        <f>grid!D15</f>
-        <v>-0.45213604844668243</v>
-      </c>
-      <c r="D2" s="2">
-        <f>grid!E15</f>
-        <v>-0.22606802422334121</v>
-      </c>
-      <c r="E2" s="2">
-        <f>grid!F15</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <f>grid!G15</f>
-        <v>0.22606802422334121</v>
-      </c>
-      <c r="G2" s="3">
-        <f>grid!H15</f>
-        <v>0.45213604844668243</v>
-      </c>
-      <c r="H2" s="1">
-        <f>grid!D16</f>
-        <v>-0.40105982483943353</v>
-      </c>
-      <c r="I2" s="2">
-        <f>grid!E16</f>
-        <v>-0.20052991241971677</v>
-      </c>
-      <c r="J2" s="2">
-        <f>grid!F16</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <f>grid!G16</f>
-        <v>0.20052991241971677</v>
-      </c>
-      <c r="L2" s="3">
-        <f>grid!H16</f>
-        <v>0.40105982483943353</v>
-      </c>
-      <c r="M2" s="1">
-        <f>grid!D17</f>
-        <v>-0.33560013885723755</v>
-      </c>
-      <c r="N2" s="2">
-        <f>grid!E17</f>
-        <v>-0.16780006942861878</v>
-      </c>
-      <c r="O2" s="2">
-        <f>grid!F17</f>
-        <v>0</v>
-      </c>
-      <c r="P2" s="2">
-        <f>grid!G17</f>
-        <v>0.16780006942861878</v>
-      </c>
-      <c r="Q2" s="3">
-        <f>grid!H17</f>
-        <v>0.33560013885723755</v>
-      </c>
-      <c r="R2" s="1">
-        <f>grid!D18</f>
-        <v>-0.29804497119035273</v>
-      </c>
-      <c r="S2" s="2">
-        <f>grid!E18</f>
-        <v>-0.14902248559517636</v>
-      </c>
-      <c r="T2" s="2">
-        <f>grid!F18</f>
-        <v>0</v>
-      </c>
-      <c r="U2" s="2">
-        <f>grid!G18</f>
-        <v>0.14902248559517636</v>
-      </c>
-      <c r="V2" s="3">
-        <f>grid!H18</f>
-        <v>0.29804497119035273</v>
-      </c>
-      <c r="W2" s="1">
-        <f>grid!D19</f>
-        <v>-0.24610784411303252</v>
-      </c>
-      <c r="X2" s="2">
-        <f>grid!E19</f>
-        <v>-0.12305392205651626</v>
-      </c>
-      <c r="Y2" s="2">
-        <f>grid!F19</f>
-        <v>0</v>
-      </c>
-      <c r="Z2" s="2">
-        <f>grid!G19</f>
-        <v>0.12305392205651626</v>
-      </c>
-      <c r="AA2" s="3">
-        <f>grid!H19</f>
-        <v>0.24610784411303252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51">
-        <f t="shared" ref="A3" si="0">$C$1</f>
-        <v>21.7</v>
-      </c>
-      <c r="B3" s="33">
-        <f>grid!$D$22</f>
-        <v>1.6873947047364422</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="10"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="10"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="10"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="10"/>
-      <c r="AA3" s="12"/>
-    </row>
-    <row r="4" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="34">
-        <f>$B$3</f>
-        <v>1.6873947047364422</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="9"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="9"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="9"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="9"/>
-      <c r="AA4" s="36"/>
-    </row>
-    <row r="5" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="34">
-        <f t="shared" ref="B5:B7" si="1">$B$3</f>
-        <v>1.6873947047364422</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="9"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="9"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="9"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="9"/>
-      <c r="AA5" s="36"/>
-    </row>
-    <row r="6" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="34">
-        <f t="shared" si="1"/>
-        <v>1.6873947047364422</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="9"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="9"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="9"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="9"/>
-      <c r="AA6" s="36"/>
-    </row>
-    <row r="7" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="35">
-        <f t="shared" si="1"/>
-        <v>1.6873947047364422</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="37"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="37"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="37"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="37"/>
-      <c r="AA7" s="38"/>
-    </row>
-    <row r="8" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51">
-        <f t="shared" ref="A8" si="2">$H$1</f>
-        <v>24.1</v>
-      </c>
-      <c r="B8" s="33">
-        <f>grid!$D$23</f>
-        <v>1.4967756431754404</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="10"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="10"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="10"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="10"/>
-      <c r="AA8" s="12"/>
-    </row>
-    <row r="9" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
-      <c r="B9" s="34">
-        <f>B8</f>
-        <v>1.4967756431754404</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="9"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="9"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="9"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="9"/>
-      <c r="AA9" s="36"/>
-    </row>
-    <row r="10" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
-      <c r="B10" s="34">
-        <f>B8</f>
-        <v>1.4967756431754404</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="9"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="9"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="9"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="9"/>
-      <c r="AA10" s="36"/>
-    </row>
-    <row r="11" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
-      <c r="B11" s="34">
-        <f>B8</f>
-        <v>1.4967756431754404</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="9"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="9"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="9"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="9"/>
-      <c r="AA11" s="36"/>
-    </row>
-    <row r="12" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="35">
-        <f>B8</f>
-        <v>1.4967756431754404</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="37"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="37"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="37"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="37"/>
-      <c r="AA12" s="38"/>
-    </row>
-    <row r="13" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="51">
-        <f t="shared" ref="A13" si="3">$M$1</f>
-        <v>28</v>
-      </c>
-      <c r="B13" s="33">
-        <f>grid!$D$24</f>
-        <v>1.2524767692423808</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="10"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="10"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="10"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="10"/>
-      <c r="AA13" s="12"/>
-    </row>
-    <row r="14" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
-      <c r="B14" s="34">
-        <f>B13</f>
-        <v>1.2524767692423808</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="9"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="9"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="9"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="9"/>
-      <c r="AA14" s="36"/>
-    </row>
-    <row r="15" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
-      <c r="B15" s="34">
-        <f>B13</f>
-        <v>1.2524767692423808</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="9"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="9"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="9"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="9"/>
-      <c r="AA15" s="36"/>
-    </row>
-    <row r="16" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
-      <c r="B16" s="34">
-        <f>B13</f>
-        <v>1.2524767692423808</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="9"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="9"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="9"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="9"/>
-      <c r="AA16" s="36"/>
-    </row>
-    <row r="17" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="35">
-        <f>B13</f>
-        <v>1.2524767692423808</v>
-      </c>
-      <c r="C17" s="37"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="37"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="37"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="37"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="37"/>
-      <c r="AA17" s="38"/>
-    </row>
-    <row r="18" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="51">
-        <f t="shared" ref="A18" si="4">$R$1</f>
-        <v>30.8</v>
-      </c>
-      <c r="B18" s="33">
-        <f>grid!$D$25</f>
-        <v>1.1123189754227987</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="10"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="10"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="10"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="10"/>
-      <c r="AA18" s="12"/>
-    </row>
-    <row r="19" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
-      <c r="B19" s="34">
-        <f>$B$18</f>
-        <v>1.1123189754227987</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="9"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="9"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="9"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="9"/>
-      <c r="AA19" s="36"/>
-    </row>
-    <row r="20" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
-      <c r="B20" s="34">
-        <f t="shared" ref="B20:B22" si="5">$B$18</f>
-        <v>1.1123189754227987</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="9"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="9"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="9"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="9"/>
-      <c r="AA20" s="36"/>
-    </row>
-    <row r="21" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
-      <c r="B21" s="34">
-        <f t="shared" si="5"/>
-        <v>1.1123189754227987</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="9"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="9"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="9"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="9"/>
-      <c r="AA21" s="36"/>
-    </row>
-    <row r="22" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="35">
-        <f t="shared" si="5"/>
-        <v>1.1123189754227987</v>
-      </c>
-      <c r="C22" s="37"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="37"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="37"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="37"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="37"/>
-      <c r="AA22" s="38"/>
-    </row>
-    <row r="23" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51">
-        <f t="shared" ref="A23" si="6">$W$1</f>
-        <v>35.6</v>
-      </c>
-      <c r="B23" s="33">
-        <f>grid!$D$26</f>
-        <v>0.9184869783710784</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="10"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="10"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="10"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="10"/>
-      <c r="AA23" s="12"/>
-    </row>
-    <row r="24" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="52"/>
-      <c r="B24" s="34">
-        <f>$B$23</f>
-        <v>0.9184869783710784</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="9"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="9"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="9"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="9"/>
-      <c r="AA24" s="36"/>
-    </row>
-    <row r="25" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
-      <c r="B25" s="34">
-        <f t="shared" ref="B25:B27" si="7">$B$23</f>
-        <v>0.9184869783710784</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="9"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="9"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="9"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="9"/>
-      <c r="AA25" s="36"/>
-    </row>
-    <row r="26" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
-      <c r="B26" s="34">
-        <f t="shared" si="7"/>
-        <v>0.9184869783710784</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="9"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="9"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="9"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="9"/>
-      <c r="AA26" s="36"/>
-    </row>
-    <row r="27" spans="1:27" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
-      <c r="B27" s="35">
-        <f t="shared" si="7"/>
-        <v>0.9184869783710784</v>
-      </c>
-      <c r="C27" s="37"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="37"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="37"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="37"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="37"/>
-      <c r="AA27" s="38"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="W1:AA1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A27"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/_hydro-radar-grid.xlsx
+++ b/_hydro-radar-grid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giord\Desktop\hrc-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC4595F-0CFF-400D-8C67-CEF4AAD19300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F23FD0-C737-4C59-BBAD-583B584FF812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{C60B9B42-610B-418E-B17A-28126607FE42}"/>
   </bookViews>
@@ -463,7 +463,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>21,6</c:v>
+                  <c:v>14,9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -497,19 +497,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.45449548096403553</c:v>
+                  <c:v>-0.68071520153922904</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.22724774048201776</c:v>
+                  <c:v>-0.54457216123138319</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>-0.40842912092353739</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.27228608061569159</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.1361430403078458</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.22724774048201776</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.45449548096403553</c:v>
+                <c:pt idx="6">
+                  <c:v>0.1361430403078458</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.27228608061569159</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.40842912092353739</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54457216123138319</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.68071520153922904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -521,19 +539,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.6962002267682341</c:v>
+                  <c:v>2.5404637176288909</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6962002267682341</c:v>
+                  <c:v>2.5404637176288909</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6962002267682341</c:v>
+                  <c:v>2.5404637176288909</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6962002267682341</c:v>
+                  <c:v>2.5404637176288909</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6962002267682341</c:v>
+                  <c:v>2.5404637176288909</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5404637176288909</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5404637176288909</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5404637176288909</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5404637176288909</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5404637176288909</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5404637176288909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -554,7 +590,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>16,8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -588,19 +624,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.40299649550213579</c:v>
+                  <c:v>-0.59894814380725703</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.20149824775106789</c:v>
+                  <c:v>-0.47915851504580564</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>-0.35936888628435426</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.23957925752290285</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.11978962876145144</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.20149824775106789</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.40299649550213579</c:v>
+                <c:pt idx="6">
+                  <c:v>0.11978962876145141</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23957925752290282</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35936888628435426</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47915851504580564</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.59894814380725703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -612,19 +666,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.5040033964861734</c:v>
+                  <c:v>2.2353049037877537</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5040033964861734</c:v>
+                  <c:v>2.2353049037877537</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5040033964861734</c:v>
+                  <c:v>2.2353049037877537</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5040033964861734</c:v>
+                  <c:v>2.2353049037877537</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5040033964861734</c:v>
+                  <c:v>2.2353049037877537</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2353049037877537</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2353049037877537</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2353049037877537</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2353049037877537</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2353049037877537</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2353049037877537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -645,7 +717,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>28,3</c:v>
+                  <c:v>18,8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -679,19 +751,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.3312547968862814</c:v>
+                  <c:v>-0.53018593957926274</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.1656273984431407</c:v>
+                  <c:v>-0.42414875166341021</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>-0.31811156374755767</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.21207437583170513</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.10603718791585258</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1656273984431407</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3312547968862814</c:v>
+                <c:pt idx="6">
+                  <c:v>0.10603718791585255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2120743758317051</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31811156374755767</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.42414875166341021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.53018593957926274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -703,19 +793,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.2362597322305109</c:v>
+                  <c:v>1.9786808639684517</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2362597322305109</c:v>
+                  <c:v>1.9786808639684517</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2362597322305109</c:v>
+                  <c:v>1.9786808639684517</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2362597322305109</c:v>
+                  <c:v>1.9786808639684517</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2362597322305109</c:v>
+                  <c:v>1.9786808639684517</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9786808639684517</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9786808639684517</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9786808639684517</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9786808639684517</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9786808639684517</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9786808639684517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -736,7 +844,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>30,4</c:v>
+                  <c:v>20,9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -770,19 +878,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.30302673368697625</c:v>
+                  <c:v>-0.47160874560537103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.15151336684348812</c:v>
+                  <c:v>-0.37728699648429681</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>-0.28296524736322259</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.18864349824214838</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9.4321749121074175E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.15151336684348812</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.30302673368697625</c:v>
+                <c:pt idx="6">
+                  <c:v>9.4321749121074203E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18864349824214841</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28296524736322259</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.37728699648429681</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.47160874560537103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -794,19 +920,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.1309111661714388</c:v>
+                  <c:v>1.7600677998930703</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1309111661714388</c:v>
+                  <c:v>1.7600677998930703</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1309111661714388</c:v>
+                  <c:v>1.7600677998930703</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1309111661714388</c:v>
+                  <c:v>1.7600677998930703</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1309111661714388</c:v>
+                  <c:v>1.7600677998930703</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7600677998930703</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7600677998930703</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7600677998930703</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7600677998930703</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7600677998930703</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7600677998930703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -827,7 +971,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>23,9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -861,19 +1005,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.2725839392444519</c:v>
+                  <c:v>-0.40494828794711735</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.13629196962222595</c:v>
+                  <c:v>-0.3239586303576939</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>-0.24296897276827042</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.16197931517884695</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.0989657589423475E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13629196962222595</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2725839392444519</c:v>
+                <c:pt idx="6">
+                  <c:v>8.0989657589423475E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16197931517884695</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24296897276827042</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3239586303576939</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.40494828794711735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -885,19 +1047,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0172971105875626</c:v>
+                  <c:v>1.5112875850566736</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0172971105875626</c:v>
+                  <c:v>1.5112875850566736</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0172971105875626</c:v>
+                  <c:v>1.5112875850566736</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0172971105875626</c:v>
+                  <c:v>1.5112875850566736</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0172971105875626</c:v>
+                  <c:v>1.5112875850566736</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5112875850566736</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5112875850566736</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5112875850566736</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5112875850566736</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5112875850566736</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5112875850566736</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2026,12 +2206,12 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
@@ -2070,33 +2250,33 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="28">
-        <v>21.6</v>
+        <v>14.9</v>
       </c>
       <c r="B2" s="38">
         <v>15</v>
       </c>
       <c r="C2" s="11">
         <f>0.56+0.12*COS(RADIANS(A2))</f>
-        <v>0.67157317830659025</v>
+        <v>0.67596512951855958</v>
       </c>
       <c r="D2" s="12">
         <f t="shared" ref="D2:D11" si="0">$C2*_xlfn.COT(RADIANS(A2))</f>
-        <v>1.6962002267682341</v>
+        <v>2.5404637176288909</v>
       </c>
       <c r="E2" s="12">
         <f t="shared" ref="E2:E11" si="1">D2*TAN(RADIANS($B$2))</f>
-        <v>0.45449548096403553</v>
+        <v>0.68071520153922904</v>
       </c>
       <c r="F2" s="12">
         <f>E2*2</f>
-        <v>0.90899096192807105</v>
+        <v>1.3614304030784581</v>
       </c>
       <c r="G2" s="38">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H2" s="13">
         <f t="shared" ref="H2:H11" si="2">F2/($G$2-1)</f>
-        <v>0.22724774048201776</v>
+        <v>0.1361430403078458</v>
       </c>
       <c r="J2" s="29" t="s">
         <v>31</v>
@@ -2107,29 +2287,29 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
-        <v>24</v>
+        <v>16.8</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="11">
         <f t="shared" ref="C3:C11" si="3">0.56+0.12*COS(RADIANS(A3))</f>
-        <v>0.66962545491711212</v>
+        <v>0.67487833970384814</v>
       </c>
       <c r="D3" s="12">
         <f t="shared" si="0"/>
-        <v>1.5040033964861734</v>
+        <v>2.2353049037877537</v>
       </c>
       <c r="E3" s="12">
         <f t="shared" si="1"/>
-        <v>0.40299649550213579</v>
+        <v>0.59894814380725703</v>
       </c>
       <c r="F3" s="12">
         <f t="shared" ref="F3:F11" si="4">E3*2</f>
-        <v>0.80599299100427158</v>
+        <v>1.1978962876145141</v>
       </c>
       <c r="G3" s="38"/>
       <c r="H3" s="13">
         <f t="shared" si="2"/>
-        <v>0.20149824775106789</v>
+        <v>0.11978962876145141</v>
       </c>
       <c r="J3" s="32"/>
       <c r="K3" s="33"/>
@@ -2138,29 +2318,29 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
-        <v>28.3</v>
+        <v>18.8</v>
       </c>
       <c r="B4" s="38"/>
       <c r="C4" s="11">
         <f t="shared" si="3"/>
-        <v>0.66565728242109945</v>
+        <v>0.67359791121388357</v>
       </c>
       <c r="D4" s="12">
         <f t="shared" si="0"/>
-        <v>1.2362597322305109</v>
+        <v>1.9786808639684517</v>
       </c>
       <c r="E4" s="12">
         <f t="shared" si="1"/>
-        <v>0.3312547968862814</v>
+        <v>0.53018593957926274</v>
       </c>
       <c r="F4" s="12">
         <f t="shared" si="4"/>
-        <v>0.6625095937725628</v>
+        <v>1.0603718791585255</v>
       </c>
       <c r="G4" s="38"/>
       <c r="H4" s="13">
         <f t="shared" si="2"/>
-        <v>0.1656273984431407</v>
+        <v>0.10603718791585255</v>
       </c>
       <c r="J4" s="32"/>
       <c r="K4" s="33"/>
@@ -2169,29 +2349,29 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
-        <v>30.4</v>
+        <v>20.9</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="11">
         <f t="shared" si="3"/>
-        <v>0.66350164030487091</v>
+        <v>0.67210453691852357</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" si="0"/>
-        <v>1.1309111661714388</v>
+        <v>1.7600677998930703</v>
       </c>
       <c r="E5" s="12">
         <f t="shared" si="1"/>
-        <v>0.30302673368697625</v>
+        <v>0.47160874560537103</v>
       </c>
       <c r="F5" s="12">
         <f t="shared" si="4"/>
-        <v>0.60605346737395249</v>
+        <v>0.94321749121074205</v>
       </c>
       <c r="G5" s="38"/>
       <c r="H5" s="13">
         <f t="shared" si="2"/>
-        <v>0.15151336684348812</v>
+        <v>9.4321749121074203E-2</v>
       </c>
       <c r="J5" s="32"/>
       <c r="K5" s="33"/>
@@ -2200,29 +2380,29 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
-        <v>33</v>
+        <v>23.9</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="11">
         <f t="shared" si="3"/>
-        <v>0.6606404681534509</v>
+        <v>0.66971047462811173</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="0"/>
-        <v>1.0172971105875626</v>
+        <v>1.5112875850566736</v>
       </c>
       <c r="E6" s="12">
         <f t="shared" si="1"/>
-        <v>0.2725839392444519</v>
+        <v>0.40494828794711735</v>
       </c>
       <c r="F6" s="12">
         <f t="shared" si="4"/>
-        <v>0.5451678784889038</v>
+        <v>0.80989657589423469</v>
       </c>
       <c r="G6" s="38"/>
       <c r="H6" s="13">
         <f t="shared" si="2"/>
-        <v>0.13629196962222595</v>
+        <v>8.0989657589423475E-2</v>
       </c>
       <c r="J6" s="32"/>
       <c r="K6" s="33"/>
@@ -2231,29 +2411,29 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B7" s="38"/>
       <c r="C7" s="11">
         <f t="shared" si="3"/>
-        <v>0.65192533317427737</v>
+        <v>0.66785528555590012</v>
       </c>
       <c r="D7" s="12">
         <f t="shared" si="0"/>
-        <v>0.77693435791362231</v>
+        <v>1.3693062575942998</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="1"/>
-        <v>0.20817893377494795</v>
+        <v>0.3669045059132755</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="4"/>
-        <v>0.4163578675498959</v>
+        <v>0.73380901182655101</v>
       </c>
       <c r="G7" s="38"/>
       <c r="H7" s="15">
         <f t="shared" si="2"/>
-        <v>0.10408946688747397</v>
+        <v>7.3380901182655098E-2</v>
       </c>
       <c r="J7" s="32"/>
       <c r="K7" s="33"/>
@@ -2262,29 +2442,29 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
-        <v>45</v>
+        <v>28.2</v>
       </c>
       <c r="B8" s="38"/>
       <c r="C8" s="11">
         <f t="shared" si="3"/>
-        <v>0.64485281374238579</v>
+        <v>0.66575641424779908</v>
       </c>
       <c r="D8" s="12">
         <f t="shared" si="0"/>
-        <v>0.64485281374238579</v>
+        <v>1.2416304654031889</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="1"/>
-        <v>0.17278779067920946</v>
+        <v>0.33269388050266346</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="4"/>
-        <v>0.34557558135841893</v>
+        <v>0.66538776100532693</v>
       </c>
       <c r="G8" s="38"/>
       <c r="H8" s="15">
         <f t="shared" si="2"/>
-        <v>8.6393895339604732E-2</v>
+        <v>6.6538776100532687E-2</v>
       </c>
       <c r="J8" s="32"/>
       <c r="K8" s="33"/>
@@ -2293,29 +2473,29 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
-        <v>50</v>
+        <v>30.8</v>
       </c>
       <c r="B9" s="38"/>
       <c r="C9" s="11">
         <f t="shared" si="3"/>
-        <v>0.63713451316238479</v>
+        <v>0.66307518763167983</v>
       </c>
       <c r="D9" s="12">
         <f t="shared" si="0"/>
-        <v>0.53461933500487291</v>
+        <v>1.1123189754227987</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>0.14325081907261955</v>
+        <v>0.29804497119035273</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="4"/>
-        <v>0.2865016381452391</v>
+        <v>0.59608994238070545</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="15">
         <f t="shared" si="2"/>
-        <v>7.1625409536309775E-2</v>
+        <v>5.9608994238070548E-2</v>
       </c>
       <c r="J9" s="32"/>
       <c r="K9" s="33"/>
@@ -2324,29 +2504,29 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
-        <v>55</v>
+        <v>33.1</v>
       </c>
       <c r="B10" s="38"/>
       <c r="C10" s="11">
         <f t="shared" si="3"/>
-        <v>0.62882917236212554</v>
+        <v>0.66052624599445275</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>0.44031092673413325</v>
+        <v>1.013245215345361</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
-        <v>0.11798095723701024</v>
+        <v>0.27149823718648852</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="4"/>
-        <v>0.23596191447402048</v>
+        <v>0.54299647437297704</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="15">
         <f t="shared" si="2"/>
-        <v>5.8990478618505121E-2</v>
+        <v>5.4299647437297704E-2</v>
       </c>
       <c r="J10" s="32"/>
       <c r="K10" s="33"/>
@@ -2355,29 +2535,29 @@
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
-        <v>60</v>
+        <v>35.5</v>
       </c>
       <c r="B11" s="39"/>
       <c r="C11" s="17">
         <f t="shared" si="3"/>
-        <v>0.62000000000000011</v>
+        <v>0.65769386220275838</v>
       </c>
       <c r="D11" s="18">
         <f t="shared" si="0"/>
-        <v>0.35795716689756818</v>
+        <v>0.92205278840271154</v>
       </c>
       <c r="E11" s="19">
         <f t="shared" si="1"/>
-        <v>9.5914333795136003E-2</v>
+        <v>0.24706330003137142</v>
       </c>
       <c r="F11" s="19">
         <f t="shared" si="4"/>
-        <v>0.19182866759027201</v>
+        <v>0.49412660006274284</v>
       </c>
       <c r="G11" s="39"/>
       <c r="H11" s="20">
         <f t="shared" si="2"/>
-        <v>4.7957166897568002E-2</v>
+        <v>4.9412660006274284E-2</v>
       </c>
       <c r="J11" s="35"/>
       <c r="K11" s="36"/>
@@ -2432,202 +2612,292 @@
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <f>A2</f>
-        <v>21.6</v>
+        <v>14.9</v>
       </c>
       <c r="B15" s="2">
         <f>D2</f>
-        <v>1.6962002267682341</v>
+        <v>2.5404637176288909</v>
       </c>
       <c r="C15" s="5">
         <f>$G$2</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1">
         <f>-TRUNC($C15/2)*$H2</f>
-        <v>-0.45449548096403553</v>
+        <v>-0.68071520153922904</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" ref="E15:F19" si="5">D15+$H2</f>
-        <v>-0.22724774048201776</v>
+        <v>-0.54457216123138319</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-0.40842912092353739</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" ref="G15:H15" si="6">F15+$H2</f>
-        <v>0.22724774048201776</v>
+        <v>-0.27228608061569159</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="6"/>
-        <v>0.45449548096403553</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="15"/>
+        <v>-0.1361430403078458</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" ref="I15:I19" si="7">H15+$H2</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" ref="J15:J19" si="8">I15+$H2</f>
+        <v>0.1361430403078458</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" ref="K15:K19" si="9">J15+$H2</f>
+        <v>0.27228608061569159</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" ref="L15:L19" si="10">K15+$H2</f>
+        <v>0.40842912092353739</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" ref="M15:M19" si="11">L15+$H2</f>
+        <v>0.54457216123138319</v>
+      </c>
+      <c r="N15" s="15">
+        <f t="shared" ref="N15:N19" si="12">M15+$H2</f>
+        <v>0.68071520153922904</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
-        <f t="shared" ref="A16:A19" si="7">A3</f>
-        <v>24</v>
+        <f t="shared" ref="A16:A19" si="13">A3</f>
+        <v>16.8</v>
       </c>
       <c r="B16" s="2">
-        <f t="shared" ref="B16:B19" si="8">D3</f>
-        <v>1.5040033964861734</v>
+        <f t="shared" ref="B16:B19" si="14">D3</f>
+        <v>2.2353049037877537</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" ref="C16:C19" si="9">$G$2</f>
-        <v>5</v>
+        <f t="shared" ref="C16:C19" si="15">$G$2</f>
+        <v>11</v>
       </c>
       <c r="D16" s="1">
         <f>-TRUNC($C16/2)*$H3</f>
-        <v>-0.40299649550213579</v>
+        <v>-0.59894814380725703</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="5"/>
-        <v>-0.20149824775106789</v>
+        <v>-0.47915851504580564</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="5"/>
+        <v>-0.35936888628435426</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" ref="G16:H16" si="16">F16+$H3</f>
+        <v>-0.23957925752290285</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="16"/>
+        <v>-0.11978962876145144</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G16" s="2">
-        <f t="shared" ref="G16:H16" si="10">F16+$H3</f>
-        <v>0.20149824775106789</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="J16" s="2">
+        <f t="shared" si="8"/>
+        <v>0.11978962876145141</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="9"/>
+        <v>0.23957925752290282</v>
+      </c>
+      <c r="L16" s="2">
         <f t="shared" si="10"/>
-        <v>0.40299649550213579</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="15"/>
+        <v>0.35936888628435426</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="11"/>
+        <v>0.47915851504580564</v>
+      </c>
+      <c r="N16" s="15">
+        <f t="shared" si="12"/>
+        <v>0.59894814380725703</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
-        <f t="shared" si="7"/>
-        <v>28.3</v>
+        <f t="shared" si="13"/>
+        <v>18.8</v>
       </c>
       <c r="B17" s="2">
-        <f t="shared" si="8"/>
-        <v>1.2362597322305109</v>
+        <f t="shared" si="14"/>
+        <v>1.9786808639684517</v>
       </c>
       <c r="C17" s="5">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f t="shared" si="15"/>
+        <v>11</v>
       </c>
       <c r="D17" s="1">
         <f>-TRUNC($C17/2)*$H4</f>
-        <v>-0.3312547968862814</v>
+        <v>-0.53018593957926274</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="5"/>
-        <v>-0.1656273984431407</v>
+        <v>-0.42414875166341021</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="5"/>
+        <v>-0.31811156374755767</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" ref="G17:H17" si="17">F17+$H4</f>
+        <v>-0.21207437583170513</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="17"/>
+        <v>-0.10603718791585258</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G17" s="2">
-        <f t="shared" ref="G17:H17" si="11">F17+$H4</f>
-        <v>0.1656273984431407</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="J17" s="2">
+        <f t="shared" si="8"/>
+        <v>0.10603718791585255</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="9"/>
+        <v>0.2120743758317051</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="10"/>
+        <v>0.31811156374755767</v>
+      </c>
+      <c r="M17" s="2">
         <f t="shared" si="11"/>
-        <v>0.3312547968862814</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="15"/>
+        <v>0.42414875166341021</v>
+      </c>
+      <c r="N17" s="15">
+        <f t="shared" si="12"/>
+        <v>0.53018593957926274</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
-        <f t="shared" si="7"/>
-        <v>30.4</v>
+        <f t="shared" si="13"/>
+        <v>20.9</v>
       </c>
       <c r="B18" s="2">
-        <f t="shared" si="8"/>
-        <v>1.1309111661714388</v>
+        <f t="shared" si="14"/>
+        <v>1.7600677998930703</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f t="shared" si="15"/>
+        <v>11</v>
       </c>
       <c r="D18" s="1">
         <f>-TRUNC($C18/2)*$H5</f>
-        <v>-0.30302673368697625</v>
+        <v>-0.47160874560537103</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="5"/>
-        <v>-0.15151336684348812</v>
+        <v>-0.37728699648429681</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="5"/>
+        <v>-0.28296524736322259</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" ref="G18:H18" si="18">F18+$H5</f>
+        <v>-0.18864349824214838</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="18"/>
+        <v>-9.4321749121074175E-2</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G18" s="2">
-        <f t="shared" ref="G18:H18" si="12">F18+$H5</f>
-        <v>0.15151336684348812</v>
-      </c>
-      <c r="H18" s="2">
+      <c r="J18" s="2">
+        <f t="shared" si="8"/>
+        <v>9.4321749121074203E-2</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="9"/>
+        <v>0.18864349824214841</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="10"/>
+        <v>0.28296524736322259</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="11"/>
+        <v>0.37728699648429681</v>
+      </c>
+      <c r="N18" s="15">
         <f t="shared" si="12"/>
-        <v>0.30302673368697625</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="15"/>
+        <v>0.47160874560537103</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
-        <f t="shared" si="7"/>
-        <v>33</v>
+        <f t="shared" si="13"/>
+        <v>23.9</v>
       </c>
       <c r="B19" s="2">
-        <f t="shared" si="8"/>
-        <v>1.0172971105875626</v>
+        <f t="shared" si="14"/>
+        <v>1.5112875850566736</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f t="shared" si="15"/>
+        <v>11</v>
       </c>
       <c r="D19" s="3">
         <f>-TRUNC($C19/2)*$H6</f>
-        <v>-0.2725839392444519</v>
+        <v>-0.40494828794711735</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" si="5"/>
-        <v>-0.13629196962222595</v>
+        <v>-0.3239586303576939</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="5"/>
+        <v>-0.24296897276827042</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" ref="G19:H19" si="19">F19+$H6</f>
+        <v>-0.16197931517884695</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="19"/>
+        <v>-8.0989657589423475E-2</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G19" s="4">
-        <f t="shared" ref="G19:H19" si="13">F19+$H6</f>
-        <v>0.13629196962222595</v>
-      </c>
-      <c r="H19" s="4">
-        <f t="shared" si="13"/>
-        <v>0.2725839392444519</v>
-      </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="22"/>
+      <c r="J19" s="4">
+        <f t="shared" si="8"/>
+        <v>8.0989657589423475E-2</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="9"/>
+        <v>0.16197931517884695</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="10"/>
+        <v>0.24296897276827042</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" si="11"/>
+        <v>0.3239586303576939</v>
+      </c>
+      <c r="N19" s="22">
+        <f t="shared" si="12"/>
+        <v>0.40494828794711735</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
@@ -2646,7 +2916,7 @@
       <c r="N20" s="23"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="5"/>
@@ -2688,172 +2958,262 @@
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <f>A2</f>
-        <v>21.6</v>
+        <v>14.9</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="1">
         <f>$B$15</f>
-        <v>1.6962002267682341</v>
+        <v>2.5404637176288909</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" ref="E22:H22" si="14">$B$15</f>
-        <v>1.6962002267682341</v>
+        <f t="shared" ref="E22:N22" si="20">$B$15</f>
+        <v>2.5404637176288909</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="14"/>
-        <v>1.6962002267682341</v>
+        <f t="shared" si="20"/>
+        <v>2.5404637176288909</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="14"/>
-        <v>1.6962002267682341</v>
+        <f t="shared" si="20"/>
+        <v>2.5404637176288909</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="14"/>
-        <v>1.6962002267682341</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="15"/>
+        <f t="shared" si="20"/>
+        <v>2.5404637176288909</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="20"/>
+        <v>2.5404637176288909</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="20"/>
+        <v>2.5404637176288909</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="20"/>
+        <v>2.5404637176288909</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="20"/>
+        <v>2.5404637176288909</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="20"/>
+        <v>2.5404637176288909</v>
+      </c>
+      <c r="N22" s="15">
+        <f t="shared" si="20"/>
+        <v>2.5404637176288909</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <f>A3</f>
-        <v>24</v>
+        <v>16.8</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="1">
         <f>$B$16</f>
-        <v>1.5040033964861734</v>
+        <v>2.2353049037877537</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" ref="E23:H23" si="15">$B$16</f>
-        <v>1.5040033964861734</v>
+        <f t="shared" ref="E23:N23" si="21">$B$16</f>
+        <v>2.2353049037877537</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="15"/>
-        <v>1.5040033964861734</v>
+        <f t="shared" si="21"/>
+        <v>2.2353049037877537</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="15"/>
-        <v>1.5040033964861734</v>
+        <f t="shared" si="21"/>
+        <v>2.2353049037877537</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="15"/>
-        <v>1.5040033964861734</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="15"/>
+        <f t="shared" si="21"/>
+        <v>2.2353049037877537</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="21"/>
+        <v>2.2353049037877537</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="21"/>
+        <v>2.2353049037877537</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="21"/>
+        <v>2.2353049037877537</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="21"/>
+        <v>2.2353049037877537</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" si="21"/>
+        <v>2.2353049037877537</v>
+      </c>
+      <c r="N23" s="15">
+        <f t="shared" si="21"/>
+        <v>2.2353049037877537</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
-        <f t="shared" ref="A24:A26" si="16">A4</f>
-        <v>28.3</v>
+        <f t="shared" ref="A24:A26" si="22">A4</f>
+        <v>18.8</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="1">
         <f>$B$17</f>
-        <v>1.2362597322305109</v>
+        <v>1.9786808639684517</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" ref="E24:H24" si="17">$B$17</f>
-        <v>1.2362597322305109</v>
+        <f t="shared" ref="E24:N24" si="23">$B$17</f>
+        <v>1.9786808639684517</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="17"/>
-        <v>1.2362597322305109</v>
+        <f t="shared" si="23"/>
+        <v>1.9786808639684517</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="17"/>
-        <v>1.2362597322305109</v>
+        <f t="shared" si="23"/>
+        <v>1.9786808639684517</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="17"/>
-        <v>1.2362597322305109</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="15"/>
+        <f t="shared" si="23"/>
+        <v>1.9786808639684517</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="23"/>
+        <v>1.9786808639684517</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="23"/>
+        <v>1.9786808639684517</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="23"/>
+        <v>1.9786808639684517</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="23"/>
+        <v>1.9786808639684517</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="23"/>
+        <v>1.9786808639684517</v>
+      </c>
+      <c r="N24" s="15">
+        <f t="shared" si="23"/>
+        <v>1.9786808639684517</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
-        <f t="shared" si="16"/>
-        <v>30.4</v>
+        <f t="shared" si="22"/>
+        <v>20.9</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="1">
         <f>$B$18</f>
-        <v>1.1309111661714388</v>
+        <v>1.7600677998930703</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" ref="E25:H25" si="18">$B$18</f>
-        <v>1.1309111661714388</v>
+        <f t="shared" ref="E25:N25" si="24">$B$18</f>
+        <v>1.7600677998930703</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="18"/>
-        <v>1.1309111661714388</v>
+        <f t="shared" si="24"/>
+        <v>1.7600677998930703</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="18"/>
-        <v>1.1309111661714388</v>
+        <f t="shared" si="24"/>
+        <v>1.7600677998930703</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="18"/>
-        <v>1.1309111661714388</v>
-      </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="15"/>
+        <f t="shared" si="24"/>
+        <v>1.7600677998930703</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="24"/>
+        <v>1.7600677998930703</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="24"/>
+        <v>1.7600677998930703</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="24"/>
+        <v>1.7600677998930703</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="24"/>
+        <v>1.7600677998930703</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="24"/>
+        <v>1.7600677998930703</v>
+      </c>
+      <c r="N25" s="15">
+        <f t="shared" si="24"/>
+        <v>1.7600677998930703</v>
+      </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
-        <f t="shared" si="16"/>
-        <v>33</v>
+        <f t="shared" si="22"/>
+        <v>23.9</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
       <c r="D26" s="26">
         <f>$B$19</f>
-        <v>1.0172971105875626</v>
+        <v>1.5112875850566736</v>
       </c>
       <c r="E26" s="19">
-        <f t="shared" ref="E26:H26" si="19">$B$19</f>
-        <v>1.0172971105875626</v>
+        <f t="shared" ref="E26:N26" si="25">$B$19</f>
+        <v>1.5112875850566736</v>
       </c>
       <c r="F26" s="19">
-        <f t="shared" si="19"/>
-        <v>1.0172971105875626</v>
+        <f t="shared" si="25"/>
+        <v>1.5112875850566736</v>
       </c>
       <c r="G26" s="19">
-        <f t="shared" si="19"/>
-        <v>1.0172971105875626</v>
+        <f t="shared" si="25"/>
+        <v>1.5112875850566736</v>
       </c>
       <c r="H26" s="19">
-        <f t="shared" si="19"/>
-        <v>1.0172971105875626</v>
-      </c>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="20"/>
+        <f t="shared" si="25"/>
+        <v>1.5112875850566736</v>
+      </c>
+      <c r="I26" s="19">
+        <f t="shared" si="25"/>
+        <v>1.5112875850566736</v>
+      </c>
+      <c r="J26" s="19">
+        <f t="shared" si="25"/>
+        <v>1.5112875850566736</v>
+      </c>
+      <c r="K26" s="19">
+        <f t="shared" si="25"/>
+        <v>1.5112875850566736</v>
+      </c>
+      <c r="L26" s="19">
+        <f t="shared" si="25"/>
+        <v>1.5112875850566736</v>
+      </c>
+      <c r="M26" s="19">
+        <f t="shared" si="25"/>
+        <v>1.5112875850566736</v>
+      </c>
+      <c r="N26" s="20">
+        <f t="shared" si="25"/>
+        <v>1.5112875850566736</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
